--- a/Översikt NORDANSTIG.xlsx
+++ b/Översikt NORDANSTIG.xlsx
@@ -575,7 +575,7 @@
         <v>45664</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>44771</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -779,7 +779,7 @@
         <v>45908.65571759259</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -870,7 +870,7 @@
         <v>46029</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>45296</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>44263</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>44840.52716435185</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
         <v>45595.74886574074</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
         <v>45950.63325231482</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>45502.36863425926</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>46019</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>46057.3446875</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>45994.44869212963</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>44545</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>45502.36028935185</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>45534.62892361111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>45091</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>45994.57239583333</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
         <v>44690.64179398148</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>44884</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>45261.29287037037</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2518,7 +2518,7 @@
         <v>44972</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>44643</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>45188.36288194444</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>45478.41214120371</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>44951</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2959,7 +2959,7 @@
         <v>45835.42466435185</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3044,7 +3044,7 @@
         <v>45931.46359953703</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>44673</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>45502.42929398148</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         <v>45502.43518518518</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>45544</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>45971.55649305556</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>45297.70762731481</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>46034.60042824074</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         <v>46038.53079861111</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
         <v>46043.56984953704</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>45219.46030092592</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4025,7 +4025,7 @@
         <v>44812.37486111111</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>45741.43090277778</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>45673.50789351852</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
         <v>45106</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>45478</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4465,7 +4465,7 @@
         <v>45317</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>45791.65094907407</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>44490</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>44825</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>44711.40037037037</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         <v>44767</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>44774.92493055556</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4934,7 +4934,7 @@
         <v>44876</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>44547.40262731481</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>44420.91974537037</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>44811.50528935185</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>44728.92792824074</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>44362</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>44452.60431712963</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>44357.52563657407</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>44686</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>44781.83763888889</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>44765.52855324074</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>44442</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>44605</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>44370.68188657407</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>44525</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>44432.66142361111</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>44462</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5953,7 +5953,7 @@
         <v>44441.58484953704</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6015,7 +6015,7 @@
         <v>44249.40599537037</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6072,7 +6072,7 @@
         <v>44713</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6129,7 +6129,7 @@
         <v>44364</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6186,7 +6186,7 @@
         <v>44417.45212962963</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6243,7 +6243,7 @@
         <v>44456.49701388889</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6300,7 +6300,7 @@
         <v>44855</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6362,7 +6362,7 @@
         <v>44475</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6424,7 +6424,7 @@
         <v>44237</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6481,7 +6481,7 @@
         <v>44435.61856481482</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6538,7 +6538,7 @@
         <v>44284</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6595,7 +6595,7 @@
         <v>44879</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>44823.3633912037</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>44831.92733796296</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>44722.5656712963</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>44831.43390046297</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
         <v>44816.44962962963</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>44287</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>44312</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>44812.63510416666</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>44741.92570601852</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>44379</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>44546.48967592593</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7309,7 +7309,7 @@
         <v>44370.48982638889</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         <v>44460</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>44473.50452546297</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7485,7 +7485,7 @@
         <v>44502.64059027778</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>44473.57443287037</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>44651.68858796296</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>44848.71773148148</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>44544.51302083334</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44461</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44509.35530092593</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
         <v>44739</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>44692</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44691.71042824074</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44797.47615740741</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>44439.64534722222</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>44544</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44412.52725694444</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44711</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>44594.62877314815</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44853.97255787037</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>44301.67956018518</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>44788.54135416666</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>44545</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>44386</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>44634.41484953704</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>44732.51826388889</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>44858.39075231482</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8903,7 +8903,7 @@
         <v>44490</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8960,7 +8960,7 @@
         <v>44525.61733796296</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>44242</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9084,7 +9084,7 @@
         <v>44357</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>44830.575</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9203,7 +9203,7 @@
         <v>44620.64556712963</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9260,7 +9260,7 @@
         <v>44692.75837962963</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>44743.45225694445</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9384,7 +9384,7 @@
         <v>44840.95450231482</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>44711.39554398148</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>44764.59569444445</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9565,7 +9565,7 @@
         <v>44467.63489583333</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9622,7 +9622,7 @@
         <v>44552.54694444445</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9684,7 +9684,7 @@
         <v>44728</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9741,7 +9741,7 @@
         <v>44491.63751157407</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9803,7 +9803,7 @@
         <v>44729.65466435185</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9860,7 +9860,7 @@
         <v>44831.5209837963</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9922,7 +9922,7 @@
         <v>44329</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9979,7 +9979,7 @@
         <v>44728.92789351852</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10036,7 +10036,7 @@
         <v>44349</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>44502.59028935185</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10150,7 +10150,7 @@
         <v>44571.56971064815</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10207,7 +10207,7 @@
         <v>44382.43252314815</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10264,7 +10264,7 @@
         <v>44284</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10321,7 +10321,7 @@
         <v>44820.49546296296</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10378,7 +10378,7 @@
         <v>44586</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10435,7 +10435,7 @@
         <v>44461</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10492,7 +10492,7 @@
         <v>44685</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10549,7 +10549,7 @@
         <v>44728</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10606,7 +10606,7 @@
         <v>44785.50188657407</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>44530.92103009259</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10720,7 +10720,7 @@
         <v>44503</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
         <v>44711.6125462963</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10834,7 +10834,7 @@
         <v>44566.92070601852</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         <v>44370.49515046296</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10948,7 +10948,7 @@
         <v>44305.62493055555</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11005,7 +11005,7 @@
         <v>44684</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11067,7 +11067,7 @@
         <v>44309</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11124,7 +11124,7 @@
         <v>44704.92618055556</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11181,7 +11181,7 @@
         <v>44734</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11238,7 +11238,7 @@
         <v>44692</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11295,7 +11295,7 @@
         <v>44659.47033564815</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11352,7 +11352,7 @@
         <v>44728.92844907408</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11409,7 +11409,7 @@
         <v>45163</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11471,7 +11471,7 @@
         <v>44692</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
         <v>45775.67856481481</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>45726</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>45644.70296296296</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11714,7 +11714,7 @@
         <v>45289.46237268519</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>45103</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>45041.54736111111</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>45188.33112268519</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11957,7 +11957,7 @@
         <v>45435.50869212963</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12019,7 +12019,7 @@
         <v>45041.5646412037</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12081,7 +12081,7 @@
         <v>44862.41356481481</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12138,7 +12138,7 @@
         <v>45631.60908564815</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12200,7 +12200,7 @@
         <v>45139.35453703703</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12262,7 +12262,7 @@
         <v>45392</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>44503.53527777778</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>44886</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12443,7 +12443,7 @@
         <v>45573.61497685185</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12500,7 +12500,7 @@
         <v>45068.92696759259</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>45625</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>44599</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>44349</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>45352.68155092592</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12790,7 +12790,7 @@
         <v>45079.43686342592</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12852,7 +12852,7 @@
         <v>45170.70216435185</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12914,7 +12914,7 @@
         <v>45357</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12971,7 +12971,7 @@
         <v>44894</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13033,7 +13033,7 @@
         <v>45722.50196759259</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13095,7 +13095,7 @@
         <v>45642.65353009259</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13152,7 +13152,7 @@
         <v>44994</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13209,7 +13209,7 @@
         <v>45660</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13271,7 +13271,7 @@
         <v>44305.68789351852</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13328,7 +13328,7 @@
         <v>45070</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13385,7 +13385,7 @@
         <v>44284</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13442,7 +13442,7 @@
         <v>45484.39853009259</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13504,7 +13504,7 @@
         <v>45169.48854166667</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13566,7 +13566,7 @@
         <v>45545.57097222222</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13628,7 +13628,7 @@
         <v>44601.62753472223</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13685,7 +13685,7 @@
         <v>45258.34424768519</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13742,7 +13742,7 @@
         <v>45303.42979166667</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13799,7 +13799,7 @@
         <v>45001</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13856,7 +13856,7 @@
         <v>45574.67715277777</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13918,7 +13918,7 @@
         <v>44830.5665162037</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13975,7 +13975,7 @@
         <v>45621.62126157407</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>44795</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>45622.69447916667</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>44900</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14218,7 +14218,7 @@
         <v>45250.39545138889</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         <v>45574</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>45762.6605787037</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         <v>45631.35064814815</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>45345</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         <v>45345.92609953704</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14620,7 +14620,7 @@
         <v>44783</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>44895.63180555555</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>45457.61493055556</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14801,7 +14801,7 @@
         <v>45691.58659722222</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14858,7 +14858,7 @@
         <v>45721.48769675926</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14920,7 +14920,7 @@
         <v>45253</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>45216.60457175926</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15039,7 +15039,7 @@
         <v>45343.34635416666</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15101,7 +15101,7 @@
         <v>45309.55506944445</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15158,7 +15158,7 @@
         <v>45149.70965277778</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>45533.57940972222</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15277,7 +15277,7 @@
         <v>45336.59125</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         <v>45610.55405092592</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15396,7 +15396,7 @@
         <v>45162.8475925926</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15458,7 +15458,7 @@
         <v>44886</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15520,7 +15520,7 @@
         <v>45699.34824074074</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15582,7 +15582,7 @@
         <v>45397</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15639,7 +15639,7 @@
         <v>45566.65224537037</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15696,7 +15696,7 @@
         <v>44806</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15753,7 +15753,7 @@
         <v>45559.63951388889</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15815,7 +15815,7 @@
         <v>45622</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15872,7 +15872,7 @@
         <v>45610.40315972222</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15934,7 +15934,7 @@
         <v>45799.72726851852</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15996,7 +15996,7 @@
         <v>45463.95457175926</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16053,7 +16053,7 @@
         <v>45534.66434027778</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16115,7 +16115,7 @@
         <v>45540.44701388889</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16172,7 +16172,7 @@
         <v>45586.69104166667</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16229,7 +16229,7 @@
         <v>45532.53859953704</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         <v>45799.3827662037</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16368,7 +16368,7 @@
         <v>45799.55915509259</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>45582.52916666667</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16492,7 +16492,7 @@
         <v>45306</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16549,7 +16549,7 @@
         <v>45802.66018518519</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16611,7 +16611,7 @@
         <v>45802.68767361111</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16673,7 +16673,7 @@
         <v>45680.37916666667</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16730,7 +16730,7 @@
         <v>44945.41037037037</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16787,7 +16787,7 @@
         <v>45803.71337962963</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16849,7 +16849,7 @@
         <v>45646.45481481482</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16906,7 +16906,7 @@
         <v>45555.54740740741</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16963,7 +16963,7 @@
         <v>45558.30701388889</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17025,7 +17025,7 @@
         <v>45799.91233796296</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17082,7 +17082,7 @@
         <v>45884.47407407407</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17139,7 +17139,7 @@
         <v>45802.70565972223</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17201,7 +17201,7 @@
         <v>45511</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>44953</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>45646.4496875</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>45646.45672453703</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>45645.36635416667</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>45645.37596064815</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17548,7 +17548,7 @@
         <v>45216.55601851852</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>44873.42377314815</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>45740.38570601852</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17724,7 +17724,7 @@
         <v>45888.42379629629</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17786,7 +17786,7 @@
         <v>45306</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17843,7 +17843,7 @@
         <v>45810.3549537037</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>45888.32341435185</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44960</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>45426.54793981482</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18081,7 +18081,7 @@
         <v>45259.65444444444</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>45309.57211805556</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>45176</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18257,7 +18257,7 @@
         <v>45812.42760416667</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18314,7 +18314,7 @@
         <v>45425.5177662037</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18371,7 +18371,7 @@
         <v>45890.54349537037</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18433,7 +18433,7 @@
         <v>45646.44805555556</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18490,7 +18490,7 @@
         <v>45813.32945601852</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18547,7 +18547,7 @@
         <v>45499.62605324074</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18604,7 +18604,7 @@
         <v>45812.39972222222</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18666,7 +18666,7 @@
         <v>45895.38581018519</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18723,7 +18723,7 @@
         <v>45663</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18780,7 +18780,7 @@
         <v>45817.37618055556</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18842,7 +18842,7 @@
         <v>45029.65342592593</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18904,7 +18904,7 @@
         <v>45817.29372685185</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18966,7 +18966,7 @@
         <v>45895.38584490741</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19023,7 +19023,7 @@
         <v>45554.34570601852</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19080,7 +19080,7 @@
         <v>45624.67489583333</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19137,7 +19137,7 @@
         <v>45037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19194,7 +19194,7 @@
         <v>45817.4644212963</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19256,7 +19256,7 @@
         <v>45855</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19313,7 +19313,7 @@
         <v>44678</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19375,7 +19375,7 @@
         <v>45562.58115740741</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19432,7 +19432,7 @@
         <v>45897.47065972222</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19489,7 +19489,7 @@
         <v>45897.49759259259</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19551,7 +19551,7 @@
         <v>45896.59113425926</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19608,7 +19608,7 @@
         <v>44540.45574074074</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19670,7 +19670,7 @@
         <v>45861.47325231481</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19727,7 +19727,7 @@
         <v>45637</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19784,7 +19784,7 @@
         <v>45896.58621527778</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19841,7 +19841,7 @@
         <v>45896.62219907407</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19898,7 +19898,7 @@
         <v>45896.64530092593</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19955,7 +19955,7 @@
         <v>45670.55952546297</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20017,7 +20017,7 @@
         <v>45897.46543981481</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20074,7 +20074,7 @@
         <v>45622</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20136,7 +20136,7 @@
         <v>45622</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20198,7 +20198,7 @@
         <v>45898.5747337963</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20260,7 +20260,7 @@
         <v>45901.47646990741</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20317,7 +20317,7 @@
         <v>45484.48097222222</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20379,7 +20379,7 @@
         <v>45736</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20436,7 +20436,7 @@
         <v>45818.51094907407</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20493,7 +20493,7 @@
         <v>45462</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20550,7 +20550,7 @@
         <v>45818.50731481481</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20607,7 +20607,7 @@
         <v>45818.51226851852</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20664,7 +20664,7 @@
         <v>45903.46912037037</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20726,7 +20726,7 @@
         <v>45902.5585300926</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20783,7 +20783,7 @@
         <v>45560</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20845,7 +20845,7 @@
         <v>45625.36425925926</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20902,7 +20902,7 @@
         <v>44560.51326388889</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20964,7 +20964,7 @@
         <v>45243.63503472223</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21021,7 +21021,7 @@
         <v>45742.66208333334</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21083,7 +21083,7 @@
         <v>45824.61436342593</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21145,7 +21145,7 @@
         <v>45789.54197916666</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21207,7 +21207,7 @@
         <v>45904.48844907407</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21264,7 +21264,7 @@
         <v>45623</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21321,7 +21321,7 @@
         <v>45904.49702546297</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21378,7 +21378,7 @@
         <v>45908.65311342593</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21435,7 +21435,7 @@
         <v>45908.6599074074</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21492,7 +21492,7 @@
         <v>45196.54778935185</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21549,7 +21549,7 @@
         <v>45908.42128472222</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21611,7 +21611,7 @@
         <v>45419.4737962963</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21673,7 +21673,7 @@
         <v>45824.41685185185</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21735,7 +21735,7 @@
         <v>45909</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21792,7 +21792,7 @@
         <v>45909.30883101852</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21849,7 +21849,7 @@
         <v>45824</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         <v>45183.92178240741</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21963,7 +21963,7 @@
         <v>45908.65034722222</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22020,7 +22020,7 @@
         <v>45825.59167824074</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22077,7 +22077,7 @@
         <v>45642</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22134,7 +22134,7 @@
         <v>45910.43589120371</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22191,7 +22191,7 @@
         <v>44781.92569444444</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22248,7 +22248,7 @@
         <v>45610.64039351852</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22310,7 +22310,7 @@
         <v>45236</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22372,7 +22372,7 @@
         <v>45902.66770833333</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22429,7 +22429,7 @@
         <v>45880.52561342593</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22486,7 +22486,7 @@
         <v>45911.5544212963</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22543,7 +22543,7 @@
         <v>45189.378125</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22605,7 +22605,7 @@
         <v>44907</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22667,7 +22667,7 @@
         <v>44998.3634375</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22724,7 +22724,7 @@
         <v>45915.415</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         <v>45915.54482638889</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         <v>45915.49884259259</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22905,7 +22905,7 @@
         <v>45915.37743055556</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22967,7 +22967,7 @@
         <v>45915.51091435185</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23029,7 +23029,7 @@
         <v>45915.54935185185</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23086,7 +23086,7 @@
         <v>45826.5583449074</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23148,7 +23148,7 @@
         <v>45148.66540509259</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23205,7 +23205,7 @@
         <v>45758.32194444445</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23262,7 +23262,7 @@
         <v>45827.65844907407</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23324,7 +23324,7 @@
         <v>45827.58907407407</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23386,7 +23386,7 @@
         <v>44608.68528935185</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23443,7 +23443,7 @@
         <v>45827.47054398148</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23505,7 +23505,7 @@
         <v>45826.3631712963</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23567,7 +23567,7 @@
         <v>45120.92688657407</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23624,7 +23624,7 @@
         <v>45917.42732638889</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23681,7 +23681,7 @@
         <v>45827.64987268519</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23743,7 +23743,7 @@
         <v>44811.56202546296</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23800,7 +23800,7 @@
         <v>45056.82412037037</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23862,7 +23862,7 @@
         <v>45917.43070601852</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23919,7 +23919,7 @@
         <v>45734.55638888889</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23976,7 +23976,7 @@
         <v>45541.59466435185</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>45131.4106712963</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>45917.44409722222</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>45919.34226851852</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>45271.42679398148</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24266,7 +24266,7 @@
         <v>45918.63663194444</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24323,7 +24323,7 @@
         <v>45918.64543981481</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24380,7 +24380,7 @@
         <v>45918.65190972222</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24437,7 +24437,7 @@
         <v>45832.33273148148</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24494,7 +24494,7 @@
         <v>45923.69837962963</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24556,7 +24556,7 @@
         <v>45216.66340277778</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24613,7 +24613,7 @@
         <v>44768.34793981481</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24675,7 +24675,7 @@
         <v>45832.69053240741</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24737,7 +24737,7 @@
         <v>45832.53875</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24799,7 +24799,7 @@
         <v>45089</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24856,7 +24856,7 @@
         <v>45924.43771990741</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24918,7 +24918,7 @@
         <v>45924.40663194445</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24980,7 +24980,7 @@
         <v>45924.40707175926</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25042,7 +25042,7 @@
         <v>45463.95799768518</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25099,7 +25099,7 @@
         <v>45924.33208333333</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25161,7 +25161,7 @@
         <v>45925.36134259259</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25218,7 +25218,7 @@
         <v>45671.61848379629</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25280,7 +25280,7 @@
         <v>45835.44370370371</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
         <v>45677.41510416667</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25404,7 +25404,7 @@
         <v>45834.60199074074</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25466,7 +25466,7 @@
         <v>45835.45228009259</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25523,7 +25523,7 @@
         <v>45835.42241898148</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25585,7 +25585,7 @@
         <v>45686.44449074074</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25647,7 +25647,7 @@
         <v>45646.45193287037</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25704,7 +25704,7 @@
         <v>45611.65372685185</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25766,7 +25766,7 @@
         <v>45835.47226851852</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25823,7 +25823,7 @@
         <v>45912</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25885,7 +25885,7 @@
         <v>45835.45920138889</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25947,7 +25947,7 @@
         <v>45184.54789351852</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26004,7 +26004,7 @@
         <v>44664.94773148148</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         <v>45611.66996527778</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26128,7 +26128,7 @@
         <v>45176.37850694444</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26190,7 +26190,7 @@
         <v>45931.36108796296</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26247,7 +26247,7 @@
         <v>45838.46716435185</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26304,7 +26304,7 @@
         <v>45596.27561342593</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26361,7 +26361,7 @@
         <v>45839</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26423,7 +26423,7 @@
         <v>45931.8187962963</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26480,7 +26480,7 @@
         <v>45554</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26537,7 +26537,7 @@
         <v>45103.67951388889</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26599,7 +26599,7 @@
         <v>45931.79914351852</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26656,7 +26656,7 @@
         <v>45838.4712037037</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26713,7 +26713,7 @@
         <v>45166.41370370371</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26775,7 +26775,7 @@
         <v>44573.52768518519</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26832,7 +26832,7 @@
         <v>44945</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26894,7 +26894,7 @@
         <v>45936.44791666666</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26951,7 +26951,7 @@
         <v>45936.63667824074</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27013,7 +27013,7 @@
         <v>45936.65136574074</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27070,7 +27070,7 @@
         <v>45497.57481481481</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27132,7 +27132,7 @@
         <v>45840.47582175926</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27194,7 +27194,7 @@
         <v>45223</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27251,7 +27251,7 @@
         <v>45936.59133101852</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27308,7 +27308,7 @@
         <v>45937.49256944445</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27365,7 +27365,7 @@
         <v>45937.49377314815</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27422,7 +27422,7 @@
         <v>45882.6513425926</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27479,7 +27479,7 @@
         <v>45938.52627314815</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27536,7 +27536,7 @@
         <v>45841.55648148148</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27598,7 +27598,7 @@
         <v>45938.50202546296</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27655,7 +27655,7 @@
         <v>45938.57550925926</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27712,7 +27712,7 @@
         <v>45938.59556712963</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27769,7 +27769,7 @@
         <v>45841.36012731482</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27831,7 +27831,7 @@
         <v>45939.53217592592</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27888,7 +27888,7 @@
         <v>45525.38375</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27950,7 +27950,7 @@
         <v>45434.36261574074</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28012,7 +28012,7 @@
         <v>44748</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28069,7 +28069,7 @@
         <v>45938.49930555555</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28126,7 +28126,7 @@
         <v>45938.56237268518</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28183,7 +28183,7 @@
         <v>45044.61585648148</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28240,7 +28240,7 @@
         <v>45841.37690972222</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28302,7 +28302,7 @@
         <v>45938.50575231481</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28359,7 +28359,7 @@
         <v>45938.51270833334</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28416,7 +28416,7 @@
         <v>45938.52304398148</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28473,7 +28473,7 @@
         <v>45701.60899305555</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28535,7 +28535,7 @@
         <v>44964</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28592,7 +28592,7 @@
         <v>45939.53207175926</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28649,7 +28649,7 @@
         <v>45845.67427083333</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         <v>45938.61381944444</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28763,7 +28763,7 @@
         <v>44350.61917824074</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28820,7 +28820,7 @@
         <v>45938.5815162037</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28877,7 +28877,7 @@
         <v>45937.38684027778</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28934,7 +28934,7 @@
         <v>45939.53201388889</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28991,7 +28991,7 @@
         <v>45939.53211805555</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29048,7 +29048,7 @@
         <v>45938.58446759259</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29105,7 +29105,7 @@
         <v>45944.46469907407</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29162,7 +29162,7 @@
         <v>45846.46015046296</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29224,7 +29224,7 @@
         <v>45944.34552083333</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29281,7 +29281,7 @@
         <v>45846.39252314815</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29343,7 +29343,7 @@
         <v>45946.53197916667</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29400,7 +29400,7 @@
         <v>45846.32989583333</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29462,7 +29462,7 @@
         <v>45947.4889699074</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29524,7 +29524,7 @@
         <v>45848.45990740741</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         <v>45849.5868287037</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29643,7 +29643,7 @@
         <v>45848.58239583333</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29705,7 +29705,7 @@
         <v>45848.59746527778</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29762,7 +29762,7 @@
         <v>45946.54</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29819,7 +29819,7 @@
         <v>45946.57175925926</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29876,7 +29876,7 @@
         <v>45636.44068287037</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29933,7 +29933,7 @@
         <v>45947.52074074074</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29995,7 +29995,7 @@
         <v>45947.38203703704</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30052,7 +30052,7 @@
         <v>45232.55104166667</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30109,7 +30109,7 @@
         <v>45848.6784837963</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30166,7 +30166,7 @@
         <v>45923.56583333333</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30223,7 +30223,7 @@
         <v>45938.51703703704</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30280,7 +30280,7 @@
         <v>45951.51616898148</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30337,7 +30337,7 @@
         <v>45950.61145833333</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30394,7 +30394,7 @@
         <v>45695.49866898148</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30451,7 +30451,7 @@
         <v>45950.44428240741</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30508,7 +30508,7 @@
         <v>45169.54965277778</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30565,7 +30565,7 @@
         <v>44886</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30627,7 +30627,7 @@
         <v>45546.64888888889</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30684,7 +30684,7 @@
         <v>45546.65302083334</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30741,7 +30741,7 @@
         <v>45861.46443287037</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30798,7 +30798,7 @@
         <v>45860.37251157407</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30860,7 +30860,7 @@
         <v>45950.61001157408</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30917,7 +30917,7 @@
         <v>45860.47178240741</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30974,7 +30974,7 @@
         <v>45950.63822916667</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31031,7 +31031,7 @@
         <v>45860.41956018518</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31093,7 +31093,7 @@
         <v>45951.51335648148</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31150,7 +31150,7 @@
         <v>45859.51931712963</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31207,7 +31207,7 @@
         <v>45859.52591435185</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31264,7 +31264,7 @@
         <v>45860.45087962963</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31326,7 +31326,7 @@
         <v>45862.01456018518</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31383,7 +31383,7 @@
         <v>44900</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31440,7 +31440,7 @@
         <v>45259</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31497,7 +31497,7 @@
         <v>44874</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31559,7 +31559,7 @@
         <v>45946.54997685185</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31616,7 +31616,7 @@
         <v>44833.38618055556</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31673,7 +31673,7 @@
         <v>44544.51834490741</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31735,7 +31735,7 @@
         <v>45170.51297453704</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31797,7 +31797,7 @@
         <v>45959.34434027778</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31859,7 +31859,7 @@
         <v>44607.46671296296</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31916,7 +31916,7 @@
         <v>44824.65527777778</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31973,7 +31973,7 @@
         <v>45548</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32030,7 +32030,7 @@
         <v>44644.71585648148</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32087,7 +32087,7 @@
         <v>44434.33675925926</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32149,7 +32149,7 @@
         <v>45324.48376157408</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32206,7 +32206,7 @@
         <v>45566.45481481482</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32263,7 +32263,7 @@
         <v>45959.4071412037</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32325,7 +32325,7 @@
         <v>45489.60886574074</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32382,7 +32382,7 @@
         <v>45958.34267361111</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32444,7 +32444,7 @@
         <v>45959.88045138889</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32501,7 +32501,7 @@
         <v>45960.54616898148</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32563,7 +32563,7 @@
         <v>45544</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32625,7 +32625,7 @@
         <v>45959.47620370371</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32687,7 +32687,7 @@
         <v>45960.5203125</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32749,7 +32749,7 @@
         <v>45496.48064814815</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32806,7 +32806,7 @@
         <v>45965.47361111111</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32863,7 +32863,7 @@
         <v>45964.36503472222</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32925,7 +32925,7 @@
         <v>45965.41546296296</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32987,7 +32987,7 @@
         <v>45881.44760416666</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33044,7 +33044,7 @@
         <v>45880.47621527778</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         <v>45880.62158564815</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33168,7 +33168,7 @@
         <v>45238.70842592593</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33230,7 +33230,7 @@
         <v>45641</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33287,7 +33287,7 @@
         <v>45642</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33344,7 +33344,7 @@
         <v>45883.45166666667</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33401,7 +33401,7 @@
         <v>45882.39199074074</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33463,7 +33463,7 @@
         <v>45233.3717824074</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33525,7 +33525,7 @@
         <v>45880</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33582,7 +33582,7 @@
         <v>45971.50894675926</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33644,7 +33644,7 @@
         <v>45971.51922453703</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33706,7 +33706,7 @@
         <v>44586</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33768,7 +33768,7 @@
         <v>45883.55640046296</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33825,7 +33825,7 @@
         <v>44964.58133101852</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33887,7 +33887,7 @@
         <v>45968.49258101852</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33944,7 +33944,7 @@
         <v>45968.5668287037</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34001,7 +34001,7 @@
         <v>45579</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34058,7 +34058,7 @@
         <v>45882.48813657407</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34120,7 +34120,7 @@
         <v>45971.68881944445</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34182,7 +34182,7 @@
         <v>45968.53877314815</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34239,7 +34239,7 @@
         <v>45971.60115740741</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34301,7 +34301,7 @@
         <v>45429.92326388889</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34358,7 +34358,7 @@
         <v>45429.92331018519</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34415,7 +34415,7 @@
         <v>45183</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34477,7 +34477,7 @@
         <v>45973.48133101852</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34534,7 +34534,7 @@
         <v>45973.47506944444</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34591,7 +34591,7 @@
         <v>45667</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34648,7 +34648,7 @@
         <v>45883.36712962963</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34705,7 +34705,7 @@
         <v>44915.45592592593</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34762,7 +34762,7 @@
         <v>45882.49252314815</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34819,7 +34819,7 @@
         <v>45973.60341435186</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34876,7 +34876,7 @@
         <v>45042.3791550926</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34933,7 +34933,7 @@
         <v>45537.43836805555</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34995,7 +34995,7 @@
         <v>45973.61271990741</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35052,7 +35052,7 @@
         <v>45973.63414351852</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35109,7 +35109,7 @@
         <v>45884.53892361111</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35166,7 +35166,7 @@
         <v>45974.43295138889</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35223,7 +35223,7 @@
         <v>45296.35038194444</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35285,7 +35285,7 @@
         <v>45974.66179398148</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35347,7 +35347,7 @@
         <v>45618.41390046296</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35404,7 +35404,7 @@
         <v>45974.44013888889</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35461,7 +35461,7 @@
         <v>45979.71936342592</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35523,7 +35523,7 @@
         <v>45979.57400462963</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35580,7 +35580,7 @@
         <v>45534</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35642,7 +35642,7 @@
         <v>45884.3940162037</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35704,7 +35704,7 @@
         <v>45313.63486111111</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35761,7 +35761,7 @@
         <v>46021.34444444445</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35818,7 +35818,7 @@
         <v>45712.66641203704</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35880,7 +35880,7 @@
         <v>45089.71152777778</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35937,7 +35937,7 @@
         <v>46021.51074074074</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35994,7 +35994,7 @@
         <v>45079.46560185185</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36056,7 +36056,7 @@
         <v>45978.42759259259</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36113,7 +36113,7 @@
         <v>46021.51075231482</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36170,7 +36170,7 @@
         <v>45208.53420138889</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36227,7 +36227,7 @@
         <v>45043.49929398148</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36284,7 +36284,7 @@
         <v>44235</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36341,7 +36341,7 @@
         <v>44832.5190625</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36398,7 +36398,7 @@
         <v>45979.79126157407</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36455,7 +36455,7 @@
         <v>45981.65532407408</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36512,7 +36512,7 @@
         <v>45222.66674768519</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36569,7 +36569,7 @@
         <v>44686.7058912037</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36631,7 +36631,7 @@
         <v>44601</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36688,7 +36688,7 @@
         <v>45741.47692129629</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36745,7 +36745,7 @@
         <v>45980.69833333333</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36807,7 +36807,7 @@
         <v>45980.6985300926</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36869,7 +36869,7 @@
         <v>45981.61270833333</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36926,7 +36926,7 @@
         <v>44704</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36988,7 +36988,7 @@
         <v>45636.44318287037</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37045,7 +37045,7 @@
         <v>46024.3759375</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37102,7 +37102,7 @@
         <v>45985.71815972222</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37159,7 +37159,7 @@
         <v>45141.92449074074</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37216,7 +37216,7 @@
         <v>44652</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37273,7 +37273,7 @@
         <v>45297.67460648148</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37335,7 +37335,7 @@
         <v>46024.60648148148</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37392,7 +37392,7 @@
         <v>45624.6768287037</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37449,7 +37449,7 @@
         <v>45624.6821875</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37506,7 +37506,7 @@
         <v>45729.53565972222</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37563,7 +37563,7 @@
         <v>45743.58578703704</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37625,7 +37625,7 @@
         <v>45985.79769675926</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37682,7 +37682,7 @@
         <v>45985.805625</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37739,7 +37739,7 @@
         <v>45985.79741898148</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37796,7 +37796,7 @@
         <v>45986.42084490741</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37853,7 +37853,7 @@
         <v>45985.79703703704</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37910,7 +37910,7 @@
         <v>46029.5419212963</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37967,7 +37967,7 @@
         <v>45303</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38024,7 +38024,7 @@
         <v>44783.45782407407</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38081,7 +38081,7 @@
         <v>45987</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38138,7 +38138,7 @@
         <v>45987</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38200,7 +38200,7 @@
         <v>45987</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38262,7 +38262,7 @@
         <v>46030.44342592593</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38324,7 +38324,7 @@
         <v>46031.34438657408</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38381,7 +38381,7 @@
         <v>46030.61552083334</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38438,7 +38438,7 @@
         <v>45568.71283564815</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38495,7 +38495,7 @@
         <v>46031.36074074074</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38552,7 +38552,7 @@
         <v>46031.3956712963</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38609,7 +38609,7 @@
         <v>46031.40113425926</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38666,7 +38666,7 @@
         <v>45545</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38723,7 +38723,7 @@
         <v>46031.37184027778</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38780,7 +38780,7 @@
         <v>45537.35846064815</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38842,7 +38842,7 @@
         <v>46031.40800925926</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38899,7 +38899,7 @@
         <v>45273</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38961,7 +38961,7 @@
         <v>46031.34446759259</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39018,7 +39018,7 @@
         <v>45748.35768518518</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39080,7 +39080,7 @@
         <v>44616.63564814815</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39137,7 +39137,7 @@
         <v>46034.60563657407</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39194,7 +39194,7 @@
         <v>46019</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39251,7 +39251,7 @@
         <v>46019</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39308,7 +39308,7 @@
         <v>46019</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39365,7 +39365,7 @@
         <v>46026</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39422,7 +39422,7 @@
         <v>45020.47074074074</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39484,7 +39484,7 @@
         <v>45020.47482638889</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39546,7 +39546,7 @@
         <v>45197.33954861111</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39608,7 +39608,7 @@
         <v>45993.57200231482</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39670,7 +39670,7 @@
         <v>46035.6121412037</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39727,7 +39727,7 @@
         <v>46035.37715277778</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39784,7 +39784,7 @@
         <v>44987</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39841,7 +39841,7 @@
         <v>46035.61606481481</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39898,7 +39898,7 @@
         <v>45527.34570601852</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39960,7 +39960,7 @@
         <v>46034.59607638889</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40017,7 +40017,7 @@
         <v>46019</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40074,7 +40074,7 @@
         <v>45428</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40136,7 +40136,7 @@
         <v>45607.52349537037</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40193,7 +40193,7 @@
         <v>46035.49541666666</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40250,7 +40250,7 @@
         <v>46026</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40307,7 +40307,7 @@
         <v>46026</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40364,7 +40364,7 @@
         <v>45695</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40421,7 +40421,7 @@
         <v>46019</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40478,7 +40478,7 @@
         <v>46036.639375</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40540,7 +40540,7 @@
         <v>45631.43737268518</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40597,7 +40597,7 @@
         <v>45618.42712962963</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40659,7 +40659,7 @@
         <v>46037.69324074074</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40716,7 +40716,7 @@
         <v>46036.71938657408</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40773,7 +40773,7 @@
         <v>45546</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40830,7 +40830,7 @@
         <v>46037.41307870371</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40887,7 +40887,7 @@
         <v>46037.65424768518</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40949,7 +40949,7 @@
         <v>45702.56151620371</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41006,7 +41006,7 @@
         <v>46037.65125</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41068,7 +41068,7 @@
         <v>44512.56263888889</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41130,7 +41130,7 @@
         <v>46036.5737037037</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41187,7 +41187,7 @@
         <v>45995.34509259259</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41244,7 +41244,7 @@
         <v>45246.36513888889</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41301,7 +41301,7 @@
         <v>46037.39350694444</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41358,7 +41358,7 @@
         <v>45995.34503472222</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41415,7 +41415,7 @@
         <v>46037.65921296296</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41477,7 +41477,7 @@
         <v>45628.36013888889</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41539,7 +41539,7 @@
         <v>44811</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41596,7 +41596,7 @@
         <v>45603.65320601852</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41653,7 +41653,7 @@
         <v>46036.62802083333</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41715,7 +41715,7 @@
         <v>45603.65864583333</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41772,7 +41772,7 @@
         <v>45994</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41829,7 +41829,7 @@
         <v>44790</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41886,7 +41886,7 @@
         <v>46037.50278935185</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41943,7 +41943,7 @@
         <v>46037.51314814815</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42000,7 +42000,7 @@
         <v>45579.34450231482</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42057,7 +42057,7 @@
         <v>46041.5589699074</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42114,7 +42114,7 @@
         <v>46041.62581018519</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42171,7 +42171,7 @@
         <v>45595.54486111111</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42228,7 +42228,7 @@
         <v>45399.64290509259</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42285,7 +42285,7 @@
         <v>45635.71554398148</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42347,7 +42347,7 @@
         <v>44728</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42404,7 +42404,7 @@
         <v>45525.64055555555</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42466,7 +42466,7 @@
         <v>45537.67020833334</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42528,7 +42528,7 @@
         <v>46039.34421296296</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42585,7 +42585,7 @@
         <v>46038.53583333334</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42642,7 +42642,7 @@
         <v>45999.40980324074</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42699,7 +42699,7 @@
         <v>45268.51303240741</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42756,7 +42756,7 @@
         <v>46038.46943287037</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42813,7 +42813,7 @@
         <v>46038.49471064815</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42870,7 +42870,7 @@
         <v>45622.47424768518</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42927,7 +42927,7 @@
         <v>45622.49493055556</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42984,7 +42984,7 @@
         <v>45667</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43041,7 +43041,7 @@
         <v>45670.56143518518</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43103,7 +43103,7 @@
         <v>46041.53282407407</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43160,7 +43160,7 @@
         <v>45287.48986111111</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43217,7 +43217,7 @@
         <v>45455.38045138889</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43279,7 +43279,7 @@
         <v>46038.46219907407</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43336,7 +43336,7 @@
         <v>46043.5546412037</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43393,7 +43393,7 @@
         <v>46043.55819444444</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43450,7 +43450,7 @@
         <v>46043.5621875</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43507,7 +43507,7 @@
         <v>46043.56841435185</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43564,7 +43564,7 @@
         <v>46021</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43626,7 +43626,7 @@
         <v>46042.48484953704</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43683,7 +43683,7 @@
         <v>44596</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43740,7 +43740,7 @@
         <v>46043.58498842592</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43817,7 +43817,7 @@
         <v>46043.50856481482</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43874,7 +43874,7 @@
         <v>46043.52200231481</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43931,7 +43931,7 @@
         <v>46043.58690972222</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43988,7 +43988,7 @@
         <v>46043.60003472222</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44045,7 +44045,7 @@
         <v>45818.49982638889</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44102,7 +44102,7 @@
         <v>46043.35413194444</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44159,7 +44159,7 @@
         <v>45607.75534722222</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44216,7 +44216,7 @@
         <v>46042.64209490741</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44273,7 +44273,7 @@
         <v>46000.30241898148</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44330,7 +44330,7 @@
         <v>46043.54212962963</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44387,7 +44387,7 @@
         <v>46043.56358796296</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44444,7 +44444,7 @@
         <v>46043.60334490741</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44501,7 +44501,7 @@
         <v>45610.35550925926</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44563,7 +44563,7 @@
         <v>45818.50258101852</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44620,7 +44620,7 @@
         <v>46043.60782407408</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44677,7 +44677,7 @@
         <v>46042.39686342593</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44734,7 +44734,7 @@
         <v>45818.50530092593</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44791,7 +44791,7 @@
         <v>46043.5737962963</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44848,7 +44848,7 @@
         <v>46000.39049768518</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44905,7 +44905,7 @@
         <v>44777</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44967,7 +44967,7 @@
         <v>46042.39015046296</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45024,7 +45024,7 @@
         <v>46043.55668981482</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45081,7 +45081,7 @@
         <v>46043.58519675926</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45138,7 +45138,7 @@
         <v>46043.58523148148</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45195,7 +45195,7 @@
         <v>46042.64344907407</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45252,7 +45252,7 @@
         <v>46043.35054398148</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45309,7 +45309,7 @@
         <v>46043.53938657408</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45366,7 +45366,7 @@
         <v>46000.37758101852</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45423,7 +45423,7 @@
         <v>46043.54412037037</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45480,7 +45480,7 @@
         <v>46043.54959490741</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45537,7 +45537,7 @@
         <v>45566.55170138889</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45594,7 +45594,7 @@
         <v>45758.61561342593</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45656,7 +45656,7 @@
         <v>46043.53222222222</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45713,7 +45713,7 @@
         <v>46003.39693287037</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45770,7 +45770,7 @@
         <v>46035</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45827,7 +45827,7 @@
         <v>45618.63685185185</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45889,7 +45889,7 @@
         <v>45686.56731481481</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45951,7 +45951,7 @@
         <v>46044.42278935185</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46008,7 +46008,7 @@
         <v>46029</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46065,7 +46065,7 @@
         <v>46045.42726851852</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46122,7 +46122,7 @@
         <v>46030</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46179,7 +46179,7 @@
         <v>46042</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46236,7 +46236,7 @@
         <v>46045.54849537037</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46293,7 +46293,7 @@
         <v>46045.5874537037</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46350,7 +46350,7 @@
         <v>46044.59664351852</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46407,7 +46407,7 @@
         <v>46044.61716435185</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46464,7 +46464,7 @@
         <v>45646.43694444445</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46521,7 +46521,7 @@
         <v>44552.57103009259</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46578,7 +46578,7 @@
         <v>46020</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46635,7 +46635,7 @@
         <v>45604.39825231482</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46697,7 +46697,7 @@
         <v>46044.44666666666</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46754,7 +46754,7 @@
         <v>46044.59297453704</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46811,7 +46811,7 @@
         <v>46044.44841435185</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46868,7 +46868,7 @@
         <v>45539</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46925,7 +46925,7 @@
         <v>46024</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46982,7 +46982,7 @@
         <v>44797.45246527778</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47044,7 +47044,7 @@
         <v>46048.44825231482</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47101,7 +47101,7 @@
         <v>45532.57923611111</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47158,7 +47158,7 @@
         <v>45681.35346064815</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47220,7 +47220,7 @@
         <v>46048.56616898148</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47277,7 +47277,7 @@
         <v>46006.53935185185</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47334,7 +47334,7 @@
         <v>46048.55152777778</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47391,7 +47391,7 @@
         <v>46048.55969907407</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47448,7 +47448,7 @@
         <v>46006.53503472222</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47505,7 +47505,7 @@
         <v>46048.33430555555</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47567,7 +47567,7 @@
         <v>46048.38671296297</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47629,7 +47629,7 @@
         <v>45601.718125</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47686,7 +47686,7 @@
         <v>46048.55493055555</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47743,7 +47743,7 @@
         <v>46048.54679398148</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47800,7 +47800,7 @@
         <v>45499.45839120371</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47862,7 +47862,7 @@
         <v>45499.48480324074</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47919,7 +47919,7 @@
         <v>45140.51533564815</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47976,7 +47976,7 @@
         <v>46043</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -48033,7 +48033,7 @@
         <v>46051.59462962963</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48090,7 +48090,7 @@
         <v>45678.45496527778</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -48152,7 +48152,7 @@
         <v>46051.3309375</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48209,7 +48209,7 @@
         <v>46051.33688657408</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48266,7 +48266,7 @@
         <v>46051.34704861111</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48323,7 +48323,7 @@
         <v>46042</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48385,7 +48385,7 @@
         <v>46030</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48442,7 +48442,7 @@
         <v>46033.75958333333</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48499,7 +48499,7 @@
         <v>46031</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48561,7 +48561,7 @@
         <v>45231.66075231481</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48618,7 +48618,7 @@
         <v>46038</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48675,7 +48675,7 @@
         <v>46051.59461805555</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48732,7 +48732,7 @@
         <v>46051.6024537037</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48789,7 +48789,7 @@
         <v>46050.53388888889</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48846,7 +48846,7 @@
         <v>46042</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -48908,7 +48908,7 @@
         <v>46045</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -48965,7 +48965,7 @@
         <v>46043</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -49022,7 +49022,7 @@
         <v>46050.54231481482</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -49084,7 +49084,7 @@
         <v>46051.5652662037</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -49146,7 +49146,7 @@
         <v>46050.58849537037</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -49208,7 +49208,7 @@
         <v>45072</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -49265,7 +49265,7 @@
         <v>46051.34196759259</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -49327,7 +49327,7 @@
         <v>46051.35390046296</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -49384,7 +49384,7 @@
         <v>46051.35716435185</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49441,7 +49441,7 @@
         <v>45671.60770833334</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49503,7 +49503,7 @@
         <v>45222.44016203703</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -49560,7 +49560,7 @@
         <v>46030</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -49617,7 +49617,7 @@
         <v>46008.6775</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49679,7 +49679,7 @@
         <v>46051.48686342593</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49741,7 +49741,7 @@
         <v>46009.45855324074</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49798,7 +49798,7 @@
         <v>46030</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49855,7 +49855,7 @@
         <v>46030</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -49912,7 +49912,7 @@
         <v>46050.37143518519</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -49974,7 +49974,7 @@
         <v>46052.55290509259</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -50031,7 +50031,7 @@
         <v>45121.92335648148</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -50088,7 +50088,7 @@
         <v>46044</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -50145,7 +50145,7 @@
         <v>46010</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -50202,7 +50202,7 @@
         <v>46055.55038194444</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -50264,7 +50264,7 @@
         <v>45607.75846064815</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -50321,7 +50321,7 @@
         <v>45090.7058912037</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -50378,7 +50378,7 @@
         <v>46035</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -50435,7 +50435,7 @@
         <v>44797.36980324074</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50497,7 +50497,7 @@
         <v>46053.48377314815</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -50554,7 +50554,7 @@
         <v>46053.4891087963</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -50611,7 +50611,7 @@
         <v>46055.35247685185</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50673,7 +50673,7 @@
         <v>46055.67278935185</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -50730,7 +50730,7 @@
         <v>46055.61033564815</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -50787,7 +50787,7 @@
         <v>45072.48825231481</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -50844,7 +50844,7 @@
         <v>46055.60550925926</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -50901,7 +50901,7 @@
         <v>46055.64354166666</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -50958,7 +50958,7 @@
         <v>45684.66099537037</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -51015,7 +51015,7 @@
         <v>46055.61418981481</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -51077,7 +51077,7 @@
         <v>46053.48155092593</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -51134,7 +51134,7 @@
         <v>46053.47466435185</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -51191,7 +51191,7 @@
         <v>46054.39019675926</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -51248,7 +51248,7 @@
         <v>46055.5321412037</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -51310,7 +51310,7 @@
         <v>46052.48837962963</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -51367,7 +51367,7 @@
         <v>46057.30143518518</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -51424,7 +51424,7 @@
         <v>46057.4371875</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51481,7 +51481,7 @@
         <v>46042.31887731481</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -51538,7 +51538,7 @@
         <v>46035</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -51595,7 +51595,7 @@
         <v>46056.52653935185</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51657,7 +51657,7 @@
         <v>45950.70054398148</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51719,7 +51719,7 @@
         <v>45338.92774305555</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -51776,7 +51776,7 @@
         <v>46056.60954861111</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -51833,7 +51833,7 @@
         <v>44960.62733796296</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -51895,7 +51895,7 @@
         <v>45170</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -51957,7 +51957,7 @@
         <v>45121.60966435185</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -52014,7 +52014,7 @@
         <v>46037</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -52071,7 +52071,7 @@
         <v>46057.41232638889</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -52128,7 +52128,7 @@
         <v>46035</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -52185,7 +52185,7 @@
         <v>46056</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -52242,7 +52242,7 @@
         <v>46056</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -52299,7 +52299,7 @@
         <v>46057.43564814814</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -52356,7 +52356,7 @@
         <v>46057.43291666666</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -52413,7 +52413,7 @@
         <v>46056</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -52470,7 +52470,7 @@
         <v>45058</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -52527,7 +52527,7 @@
         <v>45541.67366898148</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -52589,7 +52589,7 @@
         <v>45733.66342592592</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -52651,7 +52651,7 @@
         <v>45757.55423611111</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -52713,7 +52713,7 @@
         <v>45373.38446759259</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -52775,7 +52775,7 @@
         <v>45636.48331018518</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -52837,7 +52837,7 @@
         <v>45386.41466435185</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -52899,7 +52899,7 @@
         <v>45386.42899305555</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -52961,7 +52961,7 @@
         <v>45034.44483796296</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -53023,7 +53023,7 @@
         <v>44690</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -53080,7 +53080,7 @@
         <v>46059.55383101852</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -53142,7 +53142,7 @@
         <v>46042.31787037037</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -53199,7 +53199,7 @@
         <v>46059.43840277778</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -53256,7 +53256,7 @@
         <v>45245</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -53318,7 +53318,7 @@
         <v>44823</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -53380,7 +53380,7 @@
         <v>45579</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -53437,7 +53437,7 @@
         <v>45140.50714120371</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -53494,7 +53494,7 @@
         <v>45771.5834837963</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -53556,7 +53556,7 @@
         <v>44348</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -53613,7 +53613,7 @@
         <v>44433</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -53670,7 +53670,7 @@
         <v>44711.65472222222</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -53732,7 +53732,7 @@
         <v>45204</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -53789,7 +53789,7 @@
         <v>45631.43291666666</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -53846,7 +53846,7 @@
         <v>44930.69663194445</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -53908,7 +53908,7 @@
         <v>44938</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -53970,7 +53970,7 @@
         <v>44960</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -54027,7 +54027,7 @@
         <v>45364.60462962963</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -54089,7 +54089,7 @@
         <v>45539</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -54146,7 +54146,7 @@
         <v>45358.34773148148</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -54208,7 +54208,7 @@
         <v>44952</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -54270,7 +54270,7 @@
         <v>44993.35480324074</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -54327,7 +54327,7 @@
         <v>45582.3827662037</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -54389,7 +54389,7 @@
         <v>45350</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -54451,7 +54451,7 @@
         <v>44713</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -54508,7 +54508,7 @@
         <v>44765.52364583333</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -54565,7 +54565,7 @@
         <v>45545.69261574074</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -54627,7 +54627,7 @@
         <v>45297.71927083333</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -54689,7 +54689,7 @@
         <v>45435.61346064815</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -54751,7 +54751,7 @@
         <v>45637</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -54808,7 +54808,7 @@
         <v>45063</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -54870,7 +54870,7 @@
         <v>44349.57659722222</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -54927,7 +54927,7 @@
         <v>45037</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -54984,7 +54984,7 @@
         <v>45149.37282407407</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -55041,7 +55041,7 @@
         <v>45175.67030092593</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -55098,7 +55098,7 @@
         <v>44900.4591087963</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -55160,7 +55160,7 @@
         <v>44900</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -55222,7 +55222,7 @@
         <v>44704.92609953704</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -55279,7 +55279,7 @@
         <v>45607.47730324074</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -55341,7 +55341,7 @@
         <v>45607.49569444444</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -55403,7 +55403,7 @@
         <v>45616</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -55460,7 +55460,7 @@
         <v>45590.34556712963</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -55517,7 +55517,7 @@
         <v>44763.44563657408</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -55579,7 +55579,7 @@
         <v>45509.33159722222</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -55636,7 +55636,7 @@
         <v>45154</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -55693,7 +55693,7 @@
         <v>45504.36773148148</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -55750,7 +55750,7 @@
         <v>45219</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -55812,7 +55812,7 @@
         <v>45695.48805555556</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -55869,7 +55869,7 @@
         <v>44679.44565972222</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -55931,7 +55931,7 @@
         <v>45617</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -55993,7 +55993,7 @@
         <v>44628.69327546296</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -56050,7 +56050,7 @@
         <v>45573.66002314815</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -56112,7 +56112,7 @@
         <v>45607.76726851852</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -56169,7 +56169,7 @@
         <v>45617.46939814815</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -56231,7 +56231,7 @@
         <v>45719.50333333333</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -56293,7 +56293,7 @@
         <v>45729.63112268518</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -56355,7 +56355,7 @@
         <v>44739.92518518519</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -56412,7 +56412,7 @@
         <v>45574.39741898148</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -56469,7 +56469,7 @@
         <v>45173</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -56526,7 +56526,7 @@
         <v>45644.45839120371</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -56588,7 +56588,7 @@
         <v>45216.56440972222</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -56650,7 +56650,7 @@
         <v>44938.64047453704</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -56707,7 +56707,7 @@
         <v>45187.66037037037</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -56764,7 +56764,7 @@
         <v>45062.40555555555</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -56821,7 +56821,7 @@
         <v>44952.50115740741</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -56883,7 +56883,7 @@
         <v>44952.55783564815</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -56945,7 +56945,7 @@
         <v>45513.62717592593</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -57007,7 +57007,7 @@
         <v>44551</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -57064,7 +57064,7 @@
         <v>45142.46318287037</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -57126,7 +57126,7 @@
         <v>45142.47361111111</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -57188,7 +57188,7 @@
         <v>45754.36946759259</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -57250,7 +57250,7 @@
         <v>45462</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -57307,7 +57307,7 @@
         <v>45641</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -57364,7 +57364,7 @@
         <v>45642.33392361111</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -57426,7 +57426,7 @@
         <v>45770.53775462963</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -57483,7 +57483,7 @@
         <v>44236</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -57540,7 +57540,7 @@
         <v>45509.32942129629</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -57597,7 +57597,7 @@
         <v>44868.66506944445</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -57659,7 +57659,7 @@
         <v>45295</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -57721,7 +57721,7 @@
         <v>45252</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -57778,7 +57778,7 @@
         <v>45603.46905092592</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -57840,7 +57840,7 @@
         <v>45489</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -57902,7 +57902,7 @@
         <v>45463.33690972222</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -57964,7 +57964,7 @@
         <v>45617.44668981482</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -58026,7 +58026,7 @@
         <v>44869</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -58083,7 +58083,7 @@
         <v>45687.44737268519</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -58140,7 +58140,7 @@
         <v>44999.49780092593</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -58197,7 +58197,7 @@
         <v>44965.48253472222</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -58254,7 +58254,7 @@
         <v>45526.58457175926</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -58311,7 +58311,7 @@
         <v>44939.9237037037</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -58368,7 +58368,7 @@
         <v>45639</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -58425,7 +58425,7 @@
         <v>45020.4343287037</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -58487,7 +58487,7 @@
         <v>45125</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -58549,7 +58549,7 @@
         <v>45320</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -58611,7 +58611,7 @@
         <v>45271.35469907407</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -58673,7 +58673,7 @@
         <v>45642.92408564815</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -58730,7 +58730,7 @@
         <v>44915</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -58787,7 +58787,7 @@
         <v>45632</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -58849,7 +58849,7 @@
         <v>45169.5165625</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -58911,7 +58911,7 @@
         <v>45187.344375</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -58973,7 +58973,7 @@
         <v>44547</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -59030,7 +59030,7 @@
         <v>45734.64541666667</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -59092,7 +59092,7 @@
         <v>45223.495</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -59154,7 +59154,7 @@
         <v>44589</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -59211,7 +59211,7 @@
         <v>45593.47171296296</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -59268,7 +59268,7 @@
         <v>44985.29388888889</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -59330,7 +59330,7 @@
         <v>45622.68012731482</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -59392,7 +59392,7 @@
         <v>45372.51966435185</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -59454,7 +59454,7 @@
         <v>45019</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -59511,7 +59511,7 @@
         <v>45770.53225694445</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -59568,7 +59568,7 @@
         <v>44720.60880787037</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -59625,7 +59625,7 @@
         <v>45382.54315972222</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -59682,7 +59682,7 @@
         <v>44844.57421296297</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -59744,7 +59744,7 @@
         <v>44967.38015046297</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -59806,7 +59806,7 @@
         <v>44943.92533564815</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -59863,7 +59863,7 @@
         <v>45567.4943287037</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -59920,7 +59920,7 @@
         <v>45685.54583333333</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -59977,7 +59977,7 @@
         <v>45636.46212962963</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -60039,7 +60039,7 @@
         <v>45624.91649305556</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -60096,7 +60096,7 @@
         <v>45632.38268518518</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -60158,7 +60158,7 @@
         <v>45624.30975694444</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -60220,7 +60220,7 @@
         <v>45763.40003472222</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -60282,7 +60282,7 @@
         <v>45271.92625</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -60339,7 +60339,7 @@
         <v>45762.63892361111</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -60401,7 +60401,7 @@
         <v>44808</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -60458,7 +60458,7 @@
         <v>45019.6284837963</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -60515,7 +60515,7 @@
         <v>44603</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -60572,7 +60572,7 @@
         <v>45622.48667824074</v>
       </c>
       <c r="C996" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -60629,7 +60629,7 @@
         <v>45429.92321759259</v>
       </c>
       <c r="C997" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -60686,7 +60686,7 @@
         <v>44967.96155092592</v>
       </c>
       <c r="C998" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -60743,7 +60743,7 @@
         <v>44967.968125</v>
       </c>
       <c r="C999" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -60800,7 +60800,7 @@
         <v>45544.57392361111</v>
       </c>
       <c r="C1000" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -60857,7 +60857,7 @@
         <v>45617</v>
       </c>
       <c r="C1001" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -60919,7 +60919,7 @@
         <v>44848.69696759259</v>
       </c>
       <c r="C1002" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -60976,7 +60976,7 @@
         <v>44907.35174768518</v>
       </c>
       <c r="C1003" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -61038,7 +61038,7 @@
         <v>45539.38991898148</v>
       </c>
       <c r="C1004" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -61095,7 +61095,7 @@
         <v>45604.38657407407</v>
       </c>
       <c r="C1005" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -61157,7 +61157,7 @@
         <v>45607.68701388889</v>
       </c>
       <c r="C1006" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -61214,7 +61214,7 @@
         <v>45216</v>
       </c>
       <c r="C1007" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
@@ -61276,7 +61276,7 @@
         <v>45624.65340277777</v>
       </c>
       <c r="C1008" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -61333,7 +61333,7 @@
         <v>44448</v>
       </c>
       <c r="C1009" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
@@ -61395,7 +61395,7 @@
         <v>45545.70670138889</v>
       </c>
       <c r="C1010" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1010" t="inlineStr">
         <is>
@@ -61457,7 +61457,7 @@
         <v>45422.53849537037</v>
       </c>
       <c r="C1011" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1011" t="inlineStr">
         <is>
@@ -61519,7 +61519,7 @@
         <v>45618.36010416667</v>
       </c>
       <c r="C1012" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1012" t="inlineStr">
         <is>
@@ -61581,7 +61581,7 @@
         <v>45076</v>
       </c>
       <c r="C1013" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1013" t="inlineStr">
         <is>
@@ -61638,7 +61638,7 @@
         <v>45439.8161574074</v>
       </c>
       <c r="C1014" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1014" t="inlineStr">
         <is>
@@ -61700,7 +61700,7 @@
         <v>45439</v>
       </c>
       <c r="C1015" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1015" t="inlineStr">
         <is>
@@ -61757,7 +61757,7 @@
         <v>44699</v>
       </c>
       <c r="C1016" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1016" t="inlineStr">
         <is>
@@ -61814,7 +61814,7 @@
         <v>45357</v>
       </c>
       <c r="C1017" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1017" t="inlineStr">
         <is>
@@ -61871,7 +61871,7 @@
         <v>45175.67440972223</v>
       </c>
       <c r="C1018" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1018" t="inlineStr">
         <is>
@@ -61928,7 +61928,7 @@
         <v>45733.57371527778</v>
       </c>
       <c r="C1019" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1019" t="inlineStr">
         <is>
@@ -61990,7 +61990,7 @@
         <v>45615.37226851852</v>
       </c>
       <c r="C1020" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1020" t="inlineStr">
         <is>
@@ -62047,7 +62047,7 @@
         <v>44964.56496527778</v>
       </c>
       <c r="C1021" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1021" t="inlineStr">
         <is>
@@ -62109,7 +62109,7 @@
         <v>44908.56585648148</v>
       </c>
       <c r="C1022" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1022" t="inlineStr">
         <is>
@@ -62171,7 +62171,7 @@
         <v>45422.56459490741</v>
       </c>
       <c r="C1023" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1023" t="inlineStr">
         <is>
@@ -62233,7 +62233,7 @@
         <v>44357</v>
       </c>
       <c r="C1024" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1024" t="inlineStr">
         <is>
@@ -62290,7 +62290,7 @@
         <v>45775.66376157408</v>
       </c>
       <c r="C1025" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1025" t="inlineStr">
         <is>
@@ -62352,7 +62352,7 @@
         <v>45506.3241087963</v>
       </c>
       <c r="C1026" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1026" t="inlineStr">
         <is>
@@ -62414,7 +62414,7 @@
         <v>44595.38513888889</v>
       </c>
       <c r="C1027" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1027" t="inlineStr">
         <is>
@@ -62471,7 +62471,7 @@
         <v>45622</v>
       </c>
       <c r="C1028" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1028" t="inlineStr">
         <is>
@@ -62533,7 +62533,7 @@
         <v>45622</v>
       </c>
       <c r="C1029" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1029" t="inlineStr">
         <is>
@@ -62595,7 +62595,7 @@
         <v>45177.35335648148</v>
       </c>
       <c r="C1030" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1030" t="inlineStr">
         <is>
@@ -62657,7 +62657,7 @@
         <v>45719.54538194444</v>
       </c>
       <c r="C1031" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1031" t="inlineStr">
         <is>
@@ -62719,7 +62719,7 @@
         <v>45260.92565972222</v>
       </c>
       <c r="C1032" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1032" t="inlineStr">
         <is>
@@ -62776,7 +62776,7 @@
         <v>45687.45087962963</v>
       </c>
       <c r="C1033" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1033" t="inlineStr">
         <is>
@@ -62833,7 +62833,7 @@
         <v>45741.4575</v>
       </c>
       <c r="C1034" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1034" t="inlineStr">
         <is>
@@ -62890,7 +62890,7 @@
         <v>45736.40509259259</v>
       </c>
       <c r="C1035" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1035" t="inlineStr">
         <is>
@@ -62952,7 +62952,7 @@
         <v>44859.65696759259</v>
       </c>
       <c r="C1036" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1036" t="inlineStr">
         <is>
@@ -63009,7 +63009,7 @@
         <v>45769.40646990741</v>
       </c>
       <c r="C1037" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1037" t="inlineStr">
         <is>
@@ -63066,7 +63066,7 @@
         <v>45771.47800925926</v>
       </c>
       <c r="C1038" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1038" t="inlineStr">
         <is>
@@ -63128,7 +63128,7 @@
         <v>45545.68222222223</v>
       </c>
       <c r="C1039" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1039" t="inlineStr">
         <is>
@@ -63185,7 +63185,7 @@
         <v>44502.61646990741</v>
       </c>
       <c r="C1040" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1040" t="inlineStr">
         <is>
@@ -63242,7 +63242,7 @@
         <v>45124.57927083333</v>
       </c>
       <c r="C1041" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1041" t="inlineStr">
         <is>
@@ -63299,7 +63299,7 @@
         <v>44789.34496527778</v>
       </c>
       <c r="C1042" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1042" t="inlineStr">
         <is>
@@ -63356,7 +63356,7 @@
         <v>44789</v>
       </c>
       <c r="C1043" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1043" t="inlineStr">
         <is>
@@ -63413,7 +63413,7 @@
         <v>45489</v>
       </c>
       <c r="C1044" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1044" t="inlineStr">
         <is>
@@ -63475,7 +63475,7 @@
         <v>45300</v>
       </c>
       <c r="C1045" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1045" t="inlineStr">
         <is>
@@ -63532,7 +63532,7 @@
         <v>45301.39141203704</v>
       </c>
       <c r="C1046" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1046" t="inlineStr">
         <is>
@@ -63589,7 +63589,7 @@
         <v>45636</v>
       </c>
       <c r="C1047" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1047" t="inlineStr">
         <is>
@@ -63646,7 +63646,7 @@
         <v>45734.54376157407</v>
       </c>
       <c r="C1048" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1048" t="inlineStr">
         <is>
@@ -63703,7 +63703,7 @@
         <v>45763.60581018519</v>
       </c>
       <c r="C1049" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1049" t="inlineStr">
         <is>
@@ -63760,7 +63760,7 @@
         <v>45777.35241898148</v>
       </c>
       <c r="C1050" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1050" t="inlineStr">
         <is>
@@ -63822,7 +63822,7 @@
         <v>45779.70166666667</v>
       </c>
       <c r="C1051" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1051" t="inlineStr">
         <is>
@@ -63879,7 +63879,7 @@
         <v>45763.63564814815</v>
       </c>
       <c r="C1052" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1052" t="inlineStr">
         <is>
@@ -63941,7 +63941,7 @@
         <v>45763.64425925926</v>
       </c>
       <c r="C1053" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1053" t="inlineStr">
         <is>
@@ -64003,7 +64003,7 @@
         <v>45783.56886574074</v>
       </c>
       <c r="C1054" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1054" t="inlineStr">
         <is>
@@ -64060,7 +64060,7 @@
         <v>45763.60788194444</v>
       </c>
       <c r="C1055" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1055" t="inlineStr">
         <is>
@@ -64122,7 +64122,7 @@
         <v>44999.47921296296</v>
       </c>
       <c r="C1056" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1056" t="inlineStr">
         <is>
@@ -64179,7 +64179,7 @@
         <v>45498.35340277778</v>
       </c>
       <c r="C1057" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1057" t="inlineStr">
         <is>
@@ -64241,7 +64241,7 @@
         <v>45784.54953703703</v>
       </c>
       <c r="C1058" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1058" t="inlineStr">
         <is>
@@ -64298,7 +64298,7 @@
         <v>45120.92684027777</v>
       </c>
       <c r="C1059" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1059" t="inlineStr">
         <is>
@@ -64355,7 +64355,7 @@
         <v>45784.52148148148</v>
       </c>
       <c r="C1060" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1060" t="inlineStr">
         <is>
@@ -64412,7 +64412,7 @@
         <v>45789.63913194444</v>
       </c>
       <c r="C1061" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1061" t="inlineStr">
         <is>
@@ -64474,7 +64474,7 @@
         <v>45789.52925925926</v>
       </c>
       <c r="C1062" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1062" t="inlineStr">
         <is>
@@ -64536,7 +64536,7 @@
         <v>45786.36578703704</v>
       </c>
       <c r="C1063" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1063" t="inlineStr">
         <is>
@@ -64598,7 +64598,7 @@
         <v>45786.39515046297</v>
       </c>
       <c r="C1064" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1064" t="inlineStr">
         <is>
@@ -64660,7 +64660,7 @@
         <v>44525.53486111111</v>
       </c>
       <c r="C1065" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1065" t="inlineStr">
         <is>
@@ -64722,7 +64722,7 @@
         <v>44788.60025462963</v>
       </c>
       <c r="C1066" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1066" t="inlineStr">
         <is>
@@ -64779,7 +64779,7 @@
         <v>45758.37297453704</v>
       </c>
       <c r="C1067" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1067" t="inlineStr">
         <is>
@@ -64841,7 +64841,7 @@
         <v>45790.89</v>
       </c>
       <c r="C1068" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1068" t="inlineStr">
         <is>
@@ -64898,7 +64898,7 @@
         <v>45791</v>
       </c>
       <c r="C1069" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1069" t="inlineStr">
         <is>
@@ -64955,7 +64955,7 @@
         <v>45791</v>
       </c>
       <c r="C1070" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1070" t="inlineStr">
         <is>
@@ -65012,7 +65012,7 @@
         <v>45791</v>
       </c>
       <c r="C1071" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1071" t="inlineStr">
         <is>
@@ -65069,7 +65069,7 @@
         <v>45754</v>
       </c>
       <c r="C1072" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1072" t="inlineStr">
         <is>
@@ -65131,7 +65131,7 @@
         <v>45055</v>
       </c>
       <c r="C1073" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1073" t="inlineStr">
         <is>
@@ -65188,7 +65188,7 @@
         <v>45793.53853009259</v>
       </c>
       <c r="C1074" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1074" t="inlineStr">
         <is>
@@ -65250,7 +65250,7 @@
         <v>45236</v>
       </c>
       <c r="C1075" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1075" t="inlineStr">
         <is>
@@ -65312,7 +65312,7 @@
         <v>45792</v>
       </c>
       <c r="C1076" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1076" t="inlineStr">
         <is>
@@ -65369,7 +65369,7 @@
         <v>45793.5347800926</v>
       </c>
       <c r="C1077" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1077" t="inlineStr">
         <is>
@@ -65431,7 +65431,7 @@
         <v>45792.43704861111</v>
       </c>
       <c r="C1078" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1078" t="inlineStr">
         <is>
@@ -65488,7 +65488,7 @@
         <v>45796.40721064815</v>
       </c>
       <c r="C1079" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1079" t="inlineStr">
         <is>
@@ -65550,7 +65550,7 @@
         <v>45191.70572916666</v>
       </c>
       <c r="C1080" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1080" t="inlineStr">
         <is>
@@ -65607,7 +65607,7 @@
         <v>45796.59533564815</v>
       </c>
       <c r="C1081" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1081" t="inlineStr">
         <is>
@@ -65664,7 +65664,7 @@
         <v>45569</v>
       </c>
       <c r="C1082" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1082" t="inlineStr">
         <is>

--- a/Översikt NORDANSTIG.xlsx
+++ b/Översikt NORDANSTIG.xlsx
@@ -575,7 +575,7 @@
         <v>45664</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>44771</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -779,7 +779,7 @@
         <v>45908.65571759259</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -870,7 +870,7 @@
         <v>46029</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>45296</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>44263</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>44840.52716435185</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
         <v>45595.74886574074</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
         <v>45950.63325231482</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>45502.36863425926</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>46019</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>46057.3446875</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>45994.44869212963</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>44545</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>45502.36028935185</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>45534.62892361111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>45091</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>45994.57239583333</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
         <v>44690.64179398148</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>44884</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>45261.29287037037</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2518,7 +2518,7 @@
         <v>44972</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>44643</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>45188.36288194444</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>45478.41214120371</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>44951</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2959,7 +2959,7 @@
         <v>45835.42466435185</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3044,7 +3044,7 @@
         <v>45931.46359953703</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>44673</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>45502.42929398148</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         <v>45502.43518518518</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>45544</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>45971.55649305556</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>45297.70762731481</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>46034.60042824074</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         <v>46038.53079861111</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
         <v>46043.56984953704</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>45219.46030092592</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4025,7 +4025,7 @@
         <v>44812.37486111111</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>45741.43090277778</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>45673.50789351852</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
         <v>45106</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>45478</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4465,7 +4465,7 @@
         <v>45317</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>45791.65094907407</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>44490</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>44825</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>44711.40037037037</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         <v>44767</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>44774.92493055556</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4934,7 +4934,7 @@
         <v>44876</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>44547.40262731481</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>44420.91974537037</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>44811.50528935185</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>44728.92792824074</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>44362</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>44452.60431712963</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>44357.52563657407</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>44686</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>44781.83763888889</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>44765.52855324074</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>44442</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>44605</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>44370.68188657407</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>44525</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>44432.66142361111</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>44462</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5953,7 +5953,7 @@
         <v>44441.58484953704</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6015,7 +6015,7 @@
         <v>44249.40599537037</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6072,7 +6072,7 @@
         <v>44713</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6129,7 +6129,7 @@
         <v>44364</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6186,7 +6186,7 @@
         <v>44417.45212962963</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6243,7 +6243,7 @@
         <v>44456.49701388889</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6300,7 +6300,7 @@
         <v>44855</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6362,7 +6362,7 @@
         <v>44475</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6424,7 +6424,7 @@
         <v>44237</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6481,7 +6481,7 @@
         <v>44435.61856481482</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6538,7 +6538,7 @@
         <v>44284</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6595,7 +6595,7 @@
         <v>44879</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>44823.3633912037</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>44831.92733796296</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>44722.5656712963</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>44831.43390046297</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
         <v>44816.44962962963</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>44287</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>44312</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>44812.63510416666</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>44741.92570601852</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>44379</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>44546.48967592593</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7309,7 +7309,7 @@
         <v>44370.48982638889</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         <v>44460</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>44473.50452546297</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7485,7 +7485,7 @@
         <v>44502.64059027778</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>44473.57443287037</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>44651.68858796296</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>44848.71773148148</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>44544.51302083334</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44461</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44509.35530092593</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
         <v>44739</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>44692</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44691.71042824074</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44797.47615740741</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>44439.64534722222</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>44544</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44412.52725694444</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44711</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>44594.62877314815</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44853.97255787037</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>44301.67956018518</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>44788.54135416666</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>44545</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>44386</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>44634.41484953704</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>44732.51826388889</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>44858.39075231482</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8903,7 +8903,7 @@
         <v>44490</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8960,7 +8960,7 @@
         <v>44525.61733796296</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>44242</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9084,7 +9084,7 @@
         <v>44357</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>44830.575</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9203,7 +9203,7 @@
         <v>44620.64556712963</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9260,7 +9260,7 @@
         <v>44692.75837962963</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>44743.45225694445</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9384,7 +9384,7 @@
         <v>44840.95450231482</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>44711.39554398148</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>44764.59569444445</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9565,7 +9565,7 @@
         <v>44467.63489583333</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9622,7 +9622,7 @@
         <v>44552.54694444445</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9684,7 +9684,7 @@
         <v>44728</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9741,7 +9741,7 @@
         <v>44491.63751157407</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9803,7 +9803,7 @@
         <v>44729.65466435185</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9860,7 +9860,7 @@
         <v>44831.5209837963</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9922,7 +9922,7 @@
         <v>44329</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9979,7 +9979,7 @@
         <v>44728.92789351852</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10036,7 +10036,7 @@
         <v>44349</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>44502.59028935185</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10150,7 +10150,7 @@
         <v>44571.56971064815</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10207,7 +10207,7 @@
         <v>44382.43252314815</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10264,7 +10264,7 @@
         <v>44284</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10321,7 +10321,7 @@
         <v>44820.49546296296</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10378,7 +10378,7 @@
         <v>44586</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10435,7 +10435,7 @@
         <v>44461</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10492,7 +10492,7 @@
         <v>44685</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10549,7 +10549,7 @@
         <v>44728</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10606,7 +10606,7 @@
         <v>44785.50188657407</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>44530.92103009259</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10720,7 +10720,7 @@
         <v>44503</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
         <v>44711.6125462963</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10834,7 +10834,7 @@
         <v>44566.92070601852</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         <v>44370.49515046296</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10948,7 +10948,7 @@
         <v>44305.62493055555</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11005,7 +11005,7 @@
         <v>44684</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11067,7 +11067,7 @@
         <v>44309</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11124,7 +11124,7 @@
         <v>44704.92618055556</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11181,7 +11181,7 @@
         <v>44734</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11238,7 +11238,7 @@
         <v>44692</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11295,7 +11295,7 @@
         <v>44659.47033564815</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11352,7 +11352,7 @@
         <v>44728.92844907408</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11409,7 +11409,7 @@
         <v>45163</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11471,7 +11471,7 @@
         <v>44692</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
         <v>45775.67856481481</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>45726</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>45644.70296296296</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11714,7 +11714,7 @@
         <v>45289.46237268519</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>45103</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>45041.54736111111</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>45188.33112268519</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11957,7 +11957,7 @@
         <v>45435.50869212963</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12019,7 +12019,7 @@
         <v>45041.5646412037</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12081,7 +12081,7 @@
         <v>44862.41356481481</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12138,7 +12138,7 @@
         <v>45631.60908564815</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12200,7 +12200,7 @@
         <v>45139.35453703703</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12262,7 +12262,7 @@
         <v>45392</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>44503.53527777778</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>44886</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12443,7 +12443,7 @@
         <v>45573.61497685185</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12500,7 +12500,7 @@
         <v>45068.92696759259</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>45625</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>44599</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>44349</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>45352.68155092592</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12790,7 +12790,7 @@
         <v>45079.43686342592</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12852,7 +12852,7 @@
         <v>45170.70216435185</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12914,7 +12914,7 @@
         <v>45357</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12971,7 +12971,7 @@
         <v>44894</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13033,7 +13033,7 @@
         <v>45722.50196759259</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13095,7 +13095,7 @@
         <v>45642.65353009259</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13152,7 +13152,7 @@
         <v>44994</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13209,7 +13209,7 @@
         <v>45660</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13271,7 +13271,7 @@
         <v>44305.68789351852</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13328,7 +13328,7 @@
         <v>45070</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13385,7 +13385,7 @@
         <v>44284</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13442,7 +13442,7 @@
         <v>45484.39853009259</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13504,7 +13504,7 @@
         <v>45169.48854166667</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13566,7 +13566,7 @@
         <v>45545.57097222222</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13628,7 +13628,7 @@
         <v>44601.62753472223</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13685,7 +13685,7 @@
         <v>45258.34424768519</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13742,7 +13742,7 @@
         <v>45303.42979166667</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13799,7 +13799,7 @@
         <v>45001</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13856,7 +13856,7 @@
         <v>45574.67715277777</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13918,7 +13918,7 @@
         <v>44830.5665162037</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13975,7 +13975,7 @@
         <v>45621.62126157407</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>44795</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>45622.69447916667</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>44900</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14218,7 +14218,7 @@
         <v>45250.39545138889</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         <v>45574</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>45762.6605787037</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         <v>45631.35064814815</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>45345</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         <v>45345.92609953704</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14620,7 +14620,7 @@
         <v>44783</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>44895.63180555555</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>45457.61493055556</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14801,7 +14801,7 @@
         <v>45691.58659722222</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14858,7 +14858,7 @@
         <v>45721.48769675926</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14920,7 +14920,7 @@
         <v>45253</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>45216.60457175926</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15039,7 +15039,7 @@
         <v>45343.34635416666</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15101,7 +15101,7 @@
         <v>45309.55506944445</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15158,7 +15158,7 @@
         <v>45149.70965277778</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>45533.57940972222</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15277,7 +15277,7 @@
         <v>45336.59125</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         <v>45610.55405092592</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15396,7 +15396,7 @@
         <v>45162.8475925926</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15458,7 +15458,7 @@
         <v>44886</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15520,7 +15520,7 @@
         <v>45699.34824074074</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15582,7 +15582,7 @@
         <v>45397</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15639,7 +15639,7 @@
         <v>45566.65224537037</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15696,7 +15696,7 @@
         <v>44806</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15753,7 +15753,7 @@
         <v>45559.63951388889</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15815,7 +15815,7 @@
         <v>45622</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15872,7 +15872,7 @@
         <v>45610.40315972222</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15934,7 +15934,7 @@
         <v>45799.72726851852</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15996,7 +15996,7 @@
         <v>45463.95457175926</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16053,7 +16053,7 @@
         <v>45534.66434027778</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16115,7 +16115,7 @@
         <v>45540.44701388889</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16172,7 +16172,7 @@
         <v>45586.69104166667</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16229,7 +16229,7 @@
         <v>45532.53859953704</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         <v>45799.3827662037</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16368,7 +16368,7 @@
         <v>45799.55915509259</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>45582.52916666667</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16492,7 +16492,7 @@
         <v>45306</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16549,7 +16549,7 @@
         <v>45802.66018518519</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16611,7 +16611,7 @@
         <v>45802.68767361111</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16673,7 +16673,7 @@
         <v>45680.37916666667</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16730,7 +16730,7 @@
         <v>44945.41037037037</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16787,7 +16787,7 @@
         <v>45803.71337962963</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16849,7 +16849,7 @@
         <v>45646.45481481482</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16906,7 +16906,7 @@
         <v>45555.54740740741</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16963,7 +16963,7 @@
         <v>45558.30701388889</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17025,7 +17025,7 @@
         <v>45799.91233796296</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17082,7 +17082,7 @@
         <v>45884.47407407407</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17139,7 +17139,7 @@
         <v>45802.70565972223</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17201,7 +17201,7 @@
         <v>45511</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>44953</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>45646.4496875</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>45646.45672453703</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>45645.36635416667</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>45645.37596064815</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17548,7 +17548,7 @@
         <v>45216.55601851852</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>44873.42377314815</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>45740.38570601852</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17724,7 +17724,7 @@
         <v>45888.42379629629</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17786,7 +17786,7 @@
         <v>45306</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17843,7 +17843,7 @@
         <v>45810.3549537037</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>45888.32341435185</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44960</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>45426.54793981482</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18081,7 +18081,7 @@
         <v>45259.65444444444</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>45309.57211805556</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>45176</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18257,7 +18257,7 @@
         <v>45812.42760416667</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18314,7 +18314,7 @@
         <v>45425.5177662037</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18371,7 +18371,7 @@
         <v>45890.54349537037</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18433,7 +18433,7 @@
         <v>45646.44805555556</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18490,7 +18490,7 @@
         <v>45813.32945601852</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18547,7 +18547,7 @@
         <v>45499.62605324074</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18604,7 +18604,7 @@
         <v>45812.39972222222</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18666,7 +18666,7 @@
         <v>45895.38581018519</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18723,7 +18723,7 @@
         <v>45663</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18780,7 +18780,7 @@
         <v>45817.37618055556</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18842,7 +18842,7 @@
         <v>45029.65342592593</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18904,7 +18904,7 @@
         <v>45817.29372685185</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18966,7 +18966,7 @@
         <v>45895.38584490741</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19023,7 +19023,7 @@
         <v>45554.34570601852</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19080,7 +19080,7 @@
         <v>45624.67489583333</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19137,7 +19137,7 @@
         <v>45037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19194,7 +19194,7 @@
         <v>45817.4644212963</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19256,7 +19256,7 @@
         <v>45855</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19313,7 +19313,7 @@
         <v>44678</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19375,7 +19375,7 @@
         <v>45562.58115740741</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19432,7 +19432,7 @@
         <v>45897.47065972222</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19489,7 +19489,7 @@
         <v>45897.49759259259</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19551,7 +19551,7 @@
         <v>45896.59113425926</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19608,7 +19608,7 @@
         <v>44540.45574074074</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19670,7 +19670,7 @@
         <v>45861.47325231481</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19727,7 +19727,7 @@
         <v>45637</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19784,7 +19784,7 @@
         <v>45896.58621527778</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19841,7 +19841,7 @@
         <v>45896.62219907407</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19898,7 +19898,7 @@
         <v>45896.64530092593</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19955,7 +19955,7 @@
         <v>45670.55952546297</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20017,7 +20017,7 @@
         <v>45897.46543981481</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20074,7 +20074,7 @@
         <v>45622</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20136,7 +20136,7 @@
         <v>45622</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20198,7 +20198,7 @@
         <v>45898.5747337963</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20260,7 +20260,7 @@
         <v>45901.47646990741</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20317,7 +20317,7 @@
         <v>45484.48097222222</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20379,7 +20379,7 @@
         <v>45736</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20436,7 +20436,7 @@
         <v>45818.51094907407</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20493,7 +20493,7 @@
         <v>45462</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20550,7 +20550,7 @@
         <v>45818.50731481481</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20607,7 +20607,7 @@
         <v>45818.51226851852</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20664,7 +20664,7 @@
         <v>45903.46912037037</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20726,7 +20726,7 @@
         <v>45902.5585300926</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20783,7 +20783,7 @@
         <v>45560</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20845,7 +20845,7 @@
         <v>45625.36425925926</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20902,7 +20902,7 @@
         <v>44560.51326388889</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20964,7 +20964,7 @@
         <v>45243.63503472223</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21021,7 +21021,7 @@
         <v>45742.66208333334</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21083,7 +21083,7 @@
         <v>45824.61436342593</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21145,7 +21145,7 @@
         <v>45789.54197916666</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21207,7 +21207,7 @@
         <v>45904.48844907407</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21264,7 +21264,7 @@
         <v>45623</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21321,7 +21321,7 @@
         <v>45904.49702546297</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21378,7 +21378,7 @@
         <v>45908.65311342593</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21435,7 +21435,7 @@
         <v>45908.6599074074</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21492,7 +21492,7 @@
         <v>45196.54778935185</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21549,7 +21549,7 @@
         <v>45908.42128472222</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21611,7 +21611,7 @@
         <v>45419.4737962963</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21673,7 +21673,7 @@
         <v>45824.41685185185</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21735,7 +21735,7 @@
         <v>45909</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21792,7 +21792,7 @@
         <v>45909.30883101852</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21849,7 +21849,7 @@
         <v>45824</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         <v>45183.92178240741</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21963,7 +21963,7 @@
         <v>45908.65034722222</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22020,7 +22020,7 @@
         <v>45825.59167824074</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22077,7 +22077,7 @@
         <v>45642</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22134,7 +22134,7 @@
         <v>45910.43589120371</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22191,7 +22191,7 @@
         <v>44781.92569444444</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22248,7 +22248,7 @@
         <v>45610.64039351852</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22310,7 +22310,7 @@
         <v>45236</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22372,7 +22372,7 @@
         <v>45902.66770833333</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22429,7 +22429,7 @@
         <v>45880.52561342593</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22486,7 +22486,7 @@
         <v>45911.5544212963</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22543,7 +22543,7 @@
         <v>45189.378125</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22605,7 +22605,7 @@
         <v>44907</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22667,7 +22667,7 @@
         <v>44998.3634375</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22724,7 +22724,7 @@
         <v>45915.415</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         <v>45915.54482638889</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         <v>45915.49884259259</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22905,7 +22905,7 @@
         <v>45915.37743055556</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22967,7 +22967,7 @@
         <v>45915.51091435185</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23029,7 +23029,7 @@
         <v>45915.54935185185</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23086,7 +23086,7 @@
         <v>45826.5583449074</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23148,7 +23148,7 @@
         <v>45148.66540509259</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23205,7 +23205,7 @@
         <v>45758.32194444445</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23262,7 +23262,7 @@
         <v>45827.65844907407</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23324,7 +23324,7 @@
         <v>45827.58907407407</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23386,7 +23386,7 @@
         <v>44608.68528935185</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23443,7 +23443,7 @@
         <v>45827.47054398148</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23505,7 +23505,7 @@
         <v>45826.3631712963</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23567,7 +23567,7 @@
         <v>45120.92688657407</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23624,7 +23624,7 @@
         <v>45917.42732638889</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23681,7 +23681,7 @@
         <v>45827.64987268519</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23743,7 +23743,7 @@
         <v>44811.56202546296</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23800,7 +23800,7 @@
         <v>45056.82412037037</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23862,7 +23862,7 @@
         <v>45917.43070601852</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23919,7 +23919,7 @@
         <v>45734.55638888889</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23976,7 +23976,7 @@
         <v>45541.59466435185</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>45131.4106712963</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>45917.44409722222</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>45919.34226851852</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>45271.42679398148</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24266,7 +24266,7 @@
         <v>45918.63663194444</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24323,7 +24323,7 @@
         <v>45918.64543981481</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24380,7 +24380,7 @@
         <v>45918.65190972222</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24437,7 +24437,7 @@
         <v>45832.33273148148</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24494,7 +24494,7 @@
         <v>45923.69837962963</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24556,7 +24556,7 @@
         <v>45216.66340277778</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24613,7 +24613,7 @@
         <v>44768.34793981481</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24675,7 +24675,7 @@
         <v>45832.69053240741</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24737,7 +24737,7 @@
         <v>45832.53875</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24799,7 +24799,7 @@
         <v>45089</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24856,7 +24856,7 @@
         <v>45924.43771990741</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24918,7 +24918,7 @@
         <v>45924.40663194445</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24980,7 +24980,7 @@
         <v>45924.40707175926</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25042,7 +25042,7 @@
         <v>45463.95799768518</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25099,7 +25099,7 @@
         <v>45924.33208333333</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25161,7 +25161,7 @@
         <v>45925.36134259259</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25218,7 +25218,7 @@
         <v>45671.61848379629</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25280,7 +25280,7 @@
         <v>45835.44370370371</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
         <v>45677.41510416667</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25404,7 +25404,7 @@
         <v>45834.60199074074</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25466,7 +25466,7 @@
         <v>45835.45228009259</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25523,7 +25523,7 @@
         <v>45835.42241898148</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25585,7 +25585,7 @@
         <v>45686.44449074074</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25647,7 +25647,7 @@
         <v>45646.45193287037</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25704,7 +25704,7 @@
         <v>45611.65372685185</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25766,7 +25766,7 @@
         <v>45835.47226851852</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25823,7 +25823,7 @@
         <v>45912</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25885,7 +25885,7 @@
         <v>45835.45920138889</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25947,7 +25947,7 @@
         <v>45184.54789351852</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26004,7 +26004,7 @@
         <v>44664.94773148148</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         <v>45611.66996527778</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26128,7 +26128,7 @@
         <v>45176.37850694444</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26190,7 +26190,7 @@
         <v>45931.36108796296</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26247,7 +26247,7 @@
         <v>45838.46716435185</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26304,7 +26304,7 @@
         <v>45596.27561342593</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26361,7 +26361,7 @@
         <v>45839</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26423,7 +26423,7 @@
         <v>45931.8187962963</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26480,7 +26480,7 @@
         <v>45554</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26537,7 +26537,7 @@
         <v>45103.67951388889</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26599,7 +26599,7 @@
         <v>45931.79914351852</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26656,7 +26656,7 @@
         <v>45838.4712037037</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26713,7 +26713,7 @@
         <v>45166.41370370371</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26775,7 +26775,7 @@
         <v>44573.52768518519</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26832,7 +26832,7 @@
         <v>44945</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26894,7 +26894,7 @@
         <v>45936.44791666666</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26951,7 +26951,7 @@
         <v>45936.63667824074</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27013,7 +27013,7 @@
         <v>45936.65136574074</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27070,7 +27070,7 @@
         <v>45497.57481481481</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27132,7 +27132,7 @@
         <v>45840.47582175926</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27194,7 +27194,7 @@
         <v>45223</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27251,7 +27251,7 @@
         <v>45936.59133101852</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27308,7 +27308,7 @@
         <v>45937.49256944445</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27365,7 +27365,7 @@
         <v>45937.49377314815</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27422,7 +27422,7 @@
         <v>45882.6513425926</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27479,7 +27479,7 @@
         <v>45938.52627314815</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27536,7 +27536,7 @@
         <v>45841.55648148148</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27598,7 +27598,7 @@
         <v>45938.50202546296</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27655,7 +27655,7 @@
         <v>45938.57550925926</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27712,7 +27712,7 @@
         <v>45938.59556712963</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27769,7 +27769,7 @@
         <v>45841.36012731482</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27831,7 +27831,7 @@
         <v>45939.53217592592</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27888,7 +27888,7 @@
         <v>45525.38375</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27950,7 +27950,7 @@
         <v>45434.36261574074</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28012,7 +28012,7 @@
         <v>44748</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28069,7 +28069,7 @@
         <v>45938.49930555555</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28126,7 +28126,7 @@
         <v>45938.56237268518</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28183,7 +28183,7 @@
         <v>45044.61585648148</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28240,7 +28240,7 @@
         <v>45841.37690972222</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28302,7 +28302,7 @@
         <v>45938.50575231481</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28359,7 +28359,7 @@
         <v>45938.51270833334</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28416,7 +28416,7 @@
         <v>45938.52304398148</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28473,7 +28473,7 @@
         <v>45701.60899305555</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28535,7 +28535,7 @@
         <v>44964</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28592,7 +28592,7 @@
         <v>45939.53207175926</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28649,7 +28649,7 @@
         <v>45845.67427083333</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         <v>45938.61381944444</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28763,7 +28763,7 @@
         <v>44350.61917824074</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28820,7 +28820,7 @@
         <v>45938.5815162037</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28877,7 +28877,7 @@
         <v>45937.38684027778</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28934,7 +28934,7 @@
         <v>45939.53201388889</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28991,7 +28991,7 @@
         <v>45939.53211805555</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29048,7 +29048,7 @@
         <v>45938.58446759259</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29105,7 +29105,7 @@
         <v>45944.46469907407</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29162,7 +29162,7 @@
         <v>45846.46015046296</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29224,7 +29224,7 @@
         <v>45944.34552083333</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29281,7 +29281,7 @@
         <v>45846.39252314815</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29343,7 +29343,7 @@
         <v>45946.53197916667</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29400,7 +29400,7 @@
         <v>45846.32989583333</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29462,7 +29462,7 @@
         <v>45947.4889699074</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29524,7 +29524,7 @@
         <v>45848.45990740741</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         <v>45849.5868287037</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29643,7 +29643,7 @@
         <v>45848.58239583333</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29705,7 +29705,7 @@
         <v>45848.59746527778</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29762,7 +29762,7 @@
         <v>45946.54</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29819,7 +29819,7 @@
         <v>45946.57175925926</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29876,7 +29876,7 @@
         <v>45636.44068287037</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29933,7 +29933,7 @@
         <v>45947.52074074074</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29995,7 +29995,7 @@
         <v>45947.38203703704</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30052,7 +30052,7 @@
         <v>45232.55104166667</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30109,7 +30109,7 @@
         <v>45848.6784837963</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30166,7 +30166,7 @@
         <v>45923.56583333333</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30223,7 +30223,7 @@
         <v>45938.51703703704</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30280,7 +30280,7 @@
         <v>45951.51616898148</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30337,7 +30337,7 @@
         <v>45950.61145833333</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30394,7 +30394,7 @@
         <v>45695.49866898148</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30451,7 +30451,7 @@
         <v>45950.44428240741</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30508,7 +30508,7 @@
         <v>45169.54965277778</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30565,7 +30565,7 @@
         <v>44886</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30627,7 +30627,7 @@
         <v>45546.64888888889</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30684,7 +30684,7 @@
         <v>45546.65302083334</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30741,7 +30741,7 @@
         <v>45861.46443287037</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30798,7 +30798,7 @@
         <v>45860.37251157407</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30860,7 +30860,7 @@
         <v>45950.61001157408</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30917,7 +30917,7 @@
         <v>45860.47178240741</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30974,7 +30974,7 @@
         <v>45950.63822916667</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31031,7 +31031,7 @@
         <v>45860.41956018518</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31093,7 +31093,7 @@
         <v>45951.51335648148</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31150,7 +31150,7 @@
         <v>45859.51931712963</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31207,7 +31207,7 @@
         <v>45859.52591435185</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31264,7 +31264,7 @@
         <v>45860.45087962963</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31326,7 +31326,7 @@
         <v>45862.01456018518</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31383,7 +31383,7 @@
         <v>44900</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31440,7 +31440,7 @@
         <v>45259</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31497,7 +31497,7 @@
         <v>44874</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31559,7 +31559,7 @@
         <v>45946.54997685185</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31616,7 +31616,7 @@
         <v>44833.38618055556</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31673,7 +31673,7 @@
         <v>44544.51834490741</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31735,7 +31735,7 @@
         <v>45170.51297453704</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31797,7 +31797,7 @@
         <v>45959.34434027778</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31859,7 +31859,7 @@
         <v>44607.46671296296</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31916,7 +31916,7 @@
         <v>44824.65527777778</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31973,7 +31973,7 @@
         <v>45548</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32030,7 +32030,7 @@
         <v>44644.71585648148</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32087,7 +32087,7 @@
         <v>44434.33675925926</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32149,7 +32149,7 @@
         <v>45324.48376157408</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32206,7 +32206,7 @@
         <v>45566.45481481482</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32263,7 +32263,7 @@
         <v>45959.4071412037</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32325,7 +32325,7 @@
         <v>45489.60886574074</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32382,7 +32382,7 @@
         <v>45958.34267361111</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32444,7 +32444,7 @@
         <v>45959.88045138889</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32501,7 +32501,7 @@
         <v>45960.54616898148</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32563,7 +32563,7 @@
         <v>45544</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32625,7 +32625,7 @@
         <v>45959.47620370371</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32687,7 +32687,7 @@
         <v>45960.5203125</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32749,7 +32749,7 @@
         <v>45496.48064814815</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32806,7 +32806,7 @@
         <v>45965.47361111111</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32863,7 +32863,7 @@
         <v>45964.36503472222</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32925,7 +32925,7 @@
         <v>45965.41546296296</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32987,7 +32987,7 @@
         <v>45881.44760416666</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33044,7 +33044,7 @@
         <v>45880.47621527778</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         <v>45880.62158564815</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33168,7 +33168,7 @@
         <v>45238.70842592593</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33230,7 +33230,7 @@
         <v>45641</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33287,7 +33287,7 @@
         <v>45642</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33344,7 +33344,7 @@
         <v>45883.45166666667</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33401,7 +33401,7 @@
         <v>45882.39199074074</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33463,7 +33463,7 @@
         <v>45233.3717824074</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33525,7 +33525,7 @@
         <v>45880</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33582,7 +33582,7 @@
         <v>45971.50894675926</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33644,7 +33644,7 @@
         <v>45971.51922453703</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33706,7 +33706,7 @@
         <v>44586</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33768,7 +33768,7 @@
         <v>45883.55640046296</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33825,7 +33825,7 @@
         <v>44964.58133101852</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33887,7 +33887,7 @@
         <v>45968.49258101852</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33944,7 +33944,7 @@
         <v>45968.5668287037</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34001,7 +34001,7 @@
         <v>45579</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34058,7 +34058,7 @@
         <v>45882.48813657407</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34120,7 +34120,7 @@
         <v>45971.68881944445</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34182,7 +34182,7 @@
         <v>45968.53877314815</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34239,7 +34239,7 @@
         <v>45971.60115740741</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34301,7 +34301,7 @@
         <v>45429.92326388889</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34358,7 +34358,7 @@
         <v>45429.92331018519</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34415,7 +34415,7 @@
         <v>45183</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34477,7 +34477,7 @@
         <v>45973.48133101852</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34534,7 +34534,7 @@
         <v>45973.47506944444</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34591,7 +34591,7 @@
         <v>45667</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34648,7 +34648,7 @@
         <v>45883.36712962963</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34705,7 +34705,7 @@
         <v>44915.45592592593</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34762,7 +34762,7 @@
         <v>45882.49252314815</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34819,7 +34819,7 @@
         <v>45973.60341435186</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34876,7 +34876,7 @@
         <v>45042.3791550926</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34933,7 +34933,7 @@
         <v>45537.43836805555</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34995,7 +34995,7 @@
         <v>45973.61271990741</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35052,7 +35052,7 @@
         <v>45973.63414351852</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35109,7 +35109,7 @@
         <v>45884.53892361111</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35166,7 +35166,7 @@
         <v>45974.43295138889</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35223,7 +35223,7 @@
         <v>45296.35038194444</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35285,7 +35285,7 @@
         <v>45974.66179398148</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35347,7 +35347,7 @@
         <v>45618.41390046296</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35404,7 +35404,7 @@
         <v>45974.44013888889</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35461,7 +35461,7 @@
         <v>45979.71936342592</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35523,7 +35523,7 @@
         <v>45979.57400462963</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35580,7 +35580,7 @@
         <v>45534</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35642,7 +35642,7 @@
         <v>45884.3940162037</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35704,7 +35704,7 @@
         <v>45313.63486111111</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35761,7 +35761,7 @@
         <v>46021.34444444445</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35818,7 +35818,7 @@
         <v>45712.66641203704</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35880,7 +35880,7 @@
         <v>45089.71152777778</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35937,7 +35937,7 @@
         <v>46021.51074074074</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35994,7 +35994,7 @@
         <v>45079.46560185185</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36056,7 +36056,7 @@
         <v>45978.42759259259</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36113,7 +36113,7 @@
         <v>46021.51075231482</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36170,7 +36170,7 @@
         <v>45208.53420138889</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36227,7 +36227,7 @@
         <v>45043.49929398148</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36284,7 +36284,7 @@
         <v>44235</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36341,7 +36341,7 @@
         <v>44832.5190625</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36398,7 +36398,7 @@
         <v>45979.79126157407</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36455,7 +36455,7 @@
         <v>45981.65532407408</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36512,7 +36512,7 @@
         <v>45222.66674768519</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36569,7 +36569,7 @@
         <v>44686.7058912037</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36631,7 +36631,7 @@
         <v>44601</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36688,7 +36688,7 @@
         <v>45741.47692129629</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36745,7 +36745,7 @@
         <v>45980.69833333333</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36807,7 +36807,7 @@
         <v>45980.6985300926</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36869,7 +36869,7 @@
         <v>45981.61270833333</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36926,7 +36926,7 @@
         <v>44704</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36988,7 +36988,7 @@
         <v>45636.44318287037</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37045,7 +37045,7 @@
         <v>46024.3759375</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37102,7 +37102,7 @@
         <v>45985.71815972222</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37159,7 +37159,7 @@
         <v>45141.92449074074</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37216,7 +37216,7 @@
         <v>44652</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37273,7 +37273,7 @@
         <v>45297.67460648148</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37335,7 +37335,7 @@
         <v>46024.60648148148</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37392,7 +37392,7 @@
         <v>45624.6768287037</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37449,7 +37449,7 @@
         <v>45624.6821875</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37506,7 +37506,7 @@
         <v>45729.53565972222</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37563,7 +37563,7 @@
         <v>45743.58578703704</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37625,7 +37625,7 @@
         <v>45985.79769675926</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37682,7 +37682,7 @@
         <v>45985.805625</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37739,7 +37739,7 @@
         <v>45985.79741898148</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37796,7 +37796,7 @@
         <v>45986.42084490741</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37853,7 +37853,7 @@
         <v>45985.79703703704</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37910,7 +37910,7 @@
         <v>46029.5419212963</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37967,7 +37967,7 @@
         <v>45303</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38024,7 +38024,7 @@
         <v>44783.45782407407</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38081,7 +38081,7 @@
         <v>45987</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38138,7 +38138,7 @@
         <v>45987</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38200,7 +38200,7 @@
         <v>45987</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38262,7 +38262,7 @@
         <v>46030.44342592593</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38324,7 +38324,7 @@
         <v>46031.34438657408</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38381,7 +38381,7 @@
         <v>46030.61552083334</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38438,7 +38438,7 @@
         <v>45568.71283564815</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38495,7 +38495,7 @@
         <v>46031.36074074074</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38552,7 +38552,7 @@
         <v>46031.3956712963</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38609,7 +38609,7 @@
         <v>46031.40113425926</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38666,7 +38666,7 @@
         <v>45545</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38723,7 +38723,7 @@
         <v>46031.37184027778</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38780,7 +38780,7 @@
         <v>45537.35846064815</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38842,7 +38842,7 @@
         <v>46031.40800925926</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38899,7 +38899,7 @@
         <v>45273</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38961,7 +38961,7 @@
         <v>46031.34446759259</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39018,7 +39018,7 @@
         <v>45748.35768518518</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39080,7 +39080,7 @@
         <v>44616.63564814815</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39137,7 +39137,7 @@
         <v>46034.60563657407</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39194,7 +39194,7 @@
         <v>46019</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39251,7 +39251,7 @@
         <v>46019</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39308,7 +39308,7 @@
         <v>46019</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39365,7 +39365,7 @@
         <v>46026</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39422,7 +39422,7 @@
         <v>45020.47074074074</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39484,7 +39484,7 @@
         <v>45020.47482638889</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39546,7 +39546,7 @@
         <v>45197.33954861111</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39608,7 +39608,7 @@
         <v>45993.57200231482</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39670,7 +39670,7 @@
         <v>46035.6121412037</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39727,7 +39727,7 @@
         <v>46035.37715277778</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39784,7 +39784,7 @@
         <v>44987</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39841,7 +39841,7 @@
         <v>46035.61606481481</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39898,7 +39898,7 @@
         <v>45527.34570601852</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39960,7 +39960,7 @@
         <v>46034.59607638889</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40017,7 +40017,7 @@
         <v>46019</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40074,7 +40074,7 @@
         <v>45428</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40136,7 +40136,7 @@
         <v>45607.52349537037</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40193,7 +40193,7 @@
         <v>46035.49541666666</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40250,7 +40250,7 @@
         <v>46026</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40307,7 +40307,7 @@
         <v>46026</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40364,7 +40364,7 @@
         <v>45695</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40421,7 +40421,7 @@
         <v>46019</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40478,7 +40478,7 @@
         <v>46036.639375</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40540,7 +40540,7 @@
         <v>45631.43737268518</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40597,7 +40597,7 @@
         <v>45618.42712962963</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40659,7 +40659,7 @@
         <v>46037.69324074074</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40716,7 +40716,7 @@
         <v>46036.71938657408</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40773,7 +40773,7 @@
         <v>45546</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40830,7 +40830,7 @@
         <v>46037.41307870371</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40887,7 +40887,7 @@
         <v>46037.65424768518</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40949,7 +40949,7 @@
         <v>45702.56151620371</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41006,7 +41006,7 @@
         <v>46037.65125</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41068,7 +41068,7 @@
         <v>44512.56263888889</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41130,7 +41130,7 @@
         <v>46036.5737037037</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41187,7 +41187,7 @@
         <v>45995.34509259259</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41244,7 +41244,7 @@
         <v>45246.36513888889</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41301,7 +41301,7 @@
         <v>46037.39350694444</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41358,7 +41358,7 @@
         <v>45995.34503472222</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41415,7 +41415,7 @@
         <v>46037.65921296296</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41477,7 +41477,7 @@
         <v>45628.36013888889</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41539,7 +41539,7 @@
         <v>44811</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41596,7 +41596,7 @@
         <v>45603.65320601852</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41653,7 +41653,7 @@
         <v>46036.62802083333</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41715,7 +41715,7 @@
         <v>45603.65864583333</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41772,7 +41772,7 @@
         <v>45994</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41829,7 +41829,7 @@
         <v>44790</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41886,7 +41886,7 @@
         <v>46037.50278935185</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41943,7 +41943,7 @@
         <v>46037.51314814815</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42000,7 +42000,7 @@
         <v>45579.34450231482</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42057,7 +42057,7 @@
         <v>46041.5589699074</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42114,7 +42114,7 @@
         <v>46041.62581018519</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42171,7 +42171,7 @@
         <v>45595.54486111111</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42228,7 +42228,7 @@
         <v>45399.64290509259</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42285,7 +42285,7 @@
         <v>45635.71554398148</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42347,7 +42347,7 @@
         <v>44728</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42404,7 +42404,7 @@
         <v>45525.64055555555</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42466,7 +42466,7 @@
         <v>45537.67020833334</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42528,7 +42528,7 @@
         <v>46039.34421296296</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42585,7 +42585,7 @@
         <v>46038.53583333334</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42642,7 +42642,7 @@
         <v>45999.40980324074</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42699,7 +42699,7 @@
         <v>45268.51303240741</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42756,7 +42756,7 @@
         <v>46038.46943287037</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42813,7 +42813,7 @@
         <v>46038.49471064815</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42870,7 +42870,7 @@
         <v>45622.47424768518</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42927,7 +42927,7 @@
         <v>45622.49493055556</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42984,7 +42984,7 @@
         <v>45667</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43041,7 +43041,7 @@
         <v>45670.56143518518</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43103,7 +43103,7 @@
         <v>46041.53282407407</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43160,7 +43160,7 @@
         <v>45287.48986111111</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43217,7 +43217,7 @@
         <v>45455.38045138889</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43279,7 +43279,7 @@
         <v>46038.46219907407</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43336,7 +43336,7 @@
         <v>46043.5546412037</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43393,7 +43393,7 @@
         <v>46043.55819444444</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43450,7 +43450,7 @@
         <v>46043.5621875</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43507,7 +43507,7 @@
         <v>46043.56841435185</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43564,7 +43564,7 @@
         <v>46021</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43626,7 +43626,7 @@
         <v>46042.48484953704</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43683,7 +43683,7 @@
         <v>44596</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43740,7 +43740,7 @@
         <v>46043.58498842592</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43817,7 +43817,7 @@
         <v>46043.50856481482</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43874,7 +43874,7 @@
         <v>46043.52200231481</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43931,7 +43931,7 @@
         <v>46043.58690972222</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43988,7 +43988,7 @@
         <v>46043.60003472222</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44045,7 +44045,7 @@
         <v>45818.49982638889</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44102,7 +44102,7 @@
         <v>46043.35413194444</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44159,7 +44159,7 @@
         <v>45607.75534722222</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44216,7 +44216,7 @@
         <v>46042.64209490741</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44273,7 +44273,7 @@
         <v>46000.30241898148</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44330,7 +44330,7 @@
         <v>46043.54212962963</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44387,7 +44387,7 @@
         <v>46043.56358796296</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44444,7 +44444,7 @@
         <v>46043.60334490741</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44501,7 +44501,7 @@
         <v>45610.35550925926</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44563,7 +44563,7 @@
         <v>45818.50258101852</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44620,7 +44620,7 @@
         <v>46043.60782407408</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44677,7 +44677,7 @@
         <v>46042.39686342593</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44734,7 +44734,7 @@
         <v>45818.50530092593</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44791,7 +44791,7 @@
         <v>46043.5737962963</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44848,7 +44848,7 @@
         <v>46000.39049768518</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44905,7 +44905,7 @@
         <v>44777</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44967,7 +44967,7 @@
         <v>46042.39015046296</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45024,7 +45024,7 @@
         <v>46043.55668981482</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45081,7 +45081,7 @@
         <v>46043.58519675926</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45138,7 +45138,7 @@
         <v>46043.58523148148</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45195,7 +45195,7 @@
         <v>46042.64344907407</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45252,7 +45252,7 @@
         <v>46043.35054398148</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45309,7 +45309,7 @@
         <v>46043.53938657408</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45366,7 +45366,7 @@
         <v>46000.37758101852</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45423,7 +45423,7 @@
         <v>46043.54412037037</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45480,7 +45480,7 @@
         <v>46043.54959490741</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45537,7 +45537,7 @@
         <v>45566.55170138889</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45594,7 +45594,7 @@
         <v>45758.61561342593</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45656,7 +45656,7 @@
         <v>46043.53222222222</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45713,7 +45713,7 @@
         <v>46003.39693287037</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45770,7 +45770,7 @@
         <v>46035</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45827,7 +45827,7 @@
         <v>45618.63685185185</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45889,7 +45889,7 @@
         <v>45686.56731481481</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45951,7 +45951,7 @@
         <v>46044.42278935185</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46008,7 +46008,7 @@
         <v>46029</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46065,7 +46065,7 @@
         <v>46045.42726851852</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46122,7 +46122,7 @@
         <v>46030</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46179,7 +46179,7 @@
         <v>46042</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46236,7 +46236,7 @@
         <v>46045.54849537037</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46293,7 +46293,7 @@
         <v>46045.5874537037</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46350,7 +46350,7 @@
         <v>46044.59664351852</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46407,7 +46407,7 @@
         <v>46044.61716435185</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46464,7 +46464,7 @@
         <v>45646.43694444445</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46521,7 +46521,7 @@
         <v>44552.57103009259</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46578,7 +46578,7 @@
         <v>46020</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46635,7 +46635,7 @@
         <v>45604.39825231482</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46697,7 +46697,7 @@
         <v>46044.44666666666</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46754,7 +46754,7 @@
         <v>46044.59297453704</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46811,7 +46811,7 @@
         <v>46044.44841435185</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46868,7 +46868,7 @@
         <v>45539</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46925,7 +46925,7 @@
         <v>46024</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46982,7 +46982,7 @@
         <v>44797.45246527778</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47044,7 +47044,7 @@
         <v>46048.44825231482</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47101,7 +47101,7 @@
         <v>45532.57923611111</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47158,7 +47158,7 @@
         <v>45681.35346064815</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47220,7 +47220,7 @@
         <v>46048.56616898148</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47277,7 +47277,7 @@
         <v>46006.53935185185</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47334,7 +47334,7 @@
         <v>46048.55152777778</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47391,7 +47391,7 @@
         <v>46048.55969907407</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47448,7 +47448,7 @@
         <v>46006.53503472222</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47505,7 +47505,7 @@
         <v>46048.33430555555</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47567,7 +47567,7 @@
         <v>46048.38671296297</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47629,7 +47629,7 @@
         <v>45601.718125</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47686,7 +47686,7 @@
         <v>46048.55493055555</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47743,7 +47743,7 @@
         <v>46048.54679398148</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47800,7 +47800,7 @@
         <v>45499.45839120371</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47862,7 +47862,7 @@
         <v>45499.48480324074</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47919,7 +47919,7 @@
         <v>45140.51533564815</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47976,7 +47976,7 @@
         <v>46043</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -48033,7 +48033,7 @@
         <v>46051.59462962963</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48090,7 +48090,7 @@
         <v>45678.45496527778</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -48152,7 +48152,7 @@
         <v>46051.3309375</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48209,7 +48209,7 @@
         <v>46051.33688657408</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48266,7 +48266,7 @@
         <v>46051.34704861111</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48323,7 +48323,7 @@
         <v>46042</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48385,7 +48385,7 @@
         <v>46030</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48442,7 +48442,7 @@
         <v>46033.75958333333</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48499,7 +48499,7 @@
         <v>46031</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48561,7 +48561,7 @@
         <v>45231.66075231481</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48618,7 +48618,7 @@
         <v>46038</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48675,7 +48675,7 @@
         <v>46051.59461805555</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48732,7 +48732,7 @@
         <v>46051.6024537037</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48789,7 +48789,7 @@
         <v>46050.53388888889</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48846,7 +48846,7 @@
         <v>46042</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -48908,7 +48908,7 @@
         <v>46045</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -48965,7 +48965,7 @@
         <v>46043</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -49022,7 +49022,7 @@
         <v>46050.54231481482</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -49084,7 +49084,7 @@
         <v>46051.5652662037</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -49146,7 +49146,7 @@
         <v>46050.58849537037</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -49208,7 +49208,7 @@
         <v>45072</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -49265,7 +49265,7 @@
         <v>46051.34196759259</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -49327,7 +49327,7 @@
         <v>46051.35390046296</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -49384,7 +49384,7 @@
         <v>46051.35716435185</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49441,7 +49441,7 @@
         <v>45671.60770833334</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49503,7 +49503,7 @@
         <v>45222.44016203703</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -49560,7 +49560,7 @@
         <v>46030</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -49617,7 +49617,7 @@
         <v>46008.6775</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49679,7 +49679,7 @@
         <v>46051.48686342593</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49741,7 +49741,7 @@
         <v>46009.45855324074</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49798,7 +49798,7 @@
         <v>46030</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49855,7 +49855,7 @@
         <v>46030</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -49912,7 +49912,7 @@
         <v>46050.37143518519</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -49974,7 +49974,7 @@
         <v>46052.55290509259</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -50031,7 +50031,7 @@
         <v>45121.92335648148</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -50088,7 +50088,7 @@
         <v>46044</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -50145,7 +50145,7 @@
         <v>46010</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -50202,7 +50202,7 @@
         <v>46055.55038194444</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -50264,7 +50264,7 @@
         <v>45607.75846064815</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -50321,7 +50321,7 @@
         <v>45090.7058912037</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -50378,7 +50378,7 @@
         <v>46035</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -50435,7 +50435,7 @@
         <v>44797.36980324074</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50497,7 +50497,7 @@
         <v>46053.48377314815</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -50554,7 +50554,7 @@
         <v>46053.4891087963</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -50611,7 +50611,7 @@
         <v>46055.35247685185</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50673,7 +50673,7 @@
         <v>46055.67278935185</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -50730,7 +50730,7 @@
         <v>46055.61033564815</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -50787,7 +50787,7 @@
         <v>45072.48825231481</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -50844,7 +50844,7 @@
         <v>46055.60550925926</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -50901,7 +50901,7 @@
         <v>46055.64354166666</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -50958,7 +50958,7 @@
         <v>45684.66099537037</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -51015,7 +51015,7 @@
         <v>46055.61418981481</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -51077,7 +51077,7 @@
         <v>46053.48155092593</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -51134,7 +51134,7 @@
         <v>46053.47466435185</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -51191,7 +51191,7 @@
         <v>46054.39019675926</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -51248,7 +51248,7 @@
         <v>46055.5321412037</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -51310,7 +51310,7 @@
         <v>46052.48837962963</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -51367,7 +51367,7 @@
         <v>46057.30143518518</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -51424,7 +51424,7 @@
         <v>46057.4371875</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51481,7 +51481,7 @@
         <v>46042.31887731481</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -51538,7 +51538,7 @@
         <v>46035</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -51595,7 +51595,7 @@
         <v>46056.52653935185</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51657,7 +51657,7 @@
         <v>45950.70054398148</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51719,7 +51719,7 @@
         <v>45338.92774305555</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -51776,7 +51776,7 @@
         <v>46056.60954861111</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -51833,7 +51833,7 @@
         <v>44960.62733796296</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -51895,7 +51895,7 @@
         <v>45170</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -51957,7 +51957,7 @@
         <v>45121.60966435185</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -52014,7 +52014,7 @@
         <v>46037</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -52071,7 +52071,7 @@
         <v>46057.41232638889</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -52128,7 +52128,7 @@
         <v>46035</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -52185,7 +52185,7 @@
         <v>46056</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -52242,7 +52242,7 @@
         <v>46056</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -52299,7 +52299,7 @@
         <v>46057.43564814814</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -52356,7 +52356,7 @@
         <v>46057.43291666666</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -52413,7 +52413,7 @@
         <v>46056</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -52470,7 +52470,7 @@
         <v>45058</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -52527,7 +52527,7 @@
         <v>45541.67366898148</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -52589,7 +52589,7 @@
         <v>45733.66342592592</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -52651,7 +52651,7 @@
         <v>45757.55423611111</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -52713,7 +52713,7 @@
         <v>45373.38446759259</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -52775,7 +52775,7 @@
         <v>45636.48331018518</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -52837,7 +52837,7 @@
         <v>45386.41466435185</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -52899,7 +52899,7 @@
         <v>45386.42899305555</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -52961,7 +52961,7 @@
         <v>45034.44483796296</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -53023,7 +53023,7 @@
         <v>44690</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -53080,7 +53080,7 @@
         <v>46059.55383101852</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -53142,7 +53142,7 @@
         <v>46042.31787037037</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -53199,7 +53199,7 @@
         <v>46059.43840277778</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -53256,7 +53256,7 @@
         <v>45245</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -53318,7 +53318,7 @@
         <v>44823</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -53380,7 +53380,7 @@
         <v>45579</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -53437,7 +53437,7 @@
         <v>45140.50714120371</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -53494,7 +53494,7 @@
         <v>45771.5834837963</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -53556,7 +53556,7 @@
         <v>44348</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -53613,7 +53613,7 @@
         <v>44433</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -53670,7 +53670,7 @@
         <v>44711.65472222222</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -53732,7 +53732,7 @@
         <v>45204</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -53789,7 +53789,7 @@
         <v>45631.43291666666</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -53846,7 +53846,7 @@
         <v>44930.69663194445</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -53908,7 +53908,7 @@
         <v>44938</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -53970,7 +53970,7 @@
         <v>44960</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -54027,7 +54027,7 @@
         <v>45364.60462962963</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -54089,7 +54089,7 @@
         <v>45539</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -54146,7 +54146,7 @@
         <v>45358.34773148148</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -54208,7 +54208,7 @@
         <v>44952</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -54270,7 +54270,7 @@
         <v>44993.35480324074</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -54327,7 +54327,7 @@
         <v>45582.3827662037</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -54389,7 +54389,7 @@
         <v>45350</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -54451,7 +54451,7 @@
         <v>44713</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -54508,7 +54508,7 @@
         <v>44765.52364583333</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -54565,7 +54565,7 @@
         <v>45545.69261574074</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -54627,7 +54627,7 @@
         <v>45297.71927083333</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -54689,7 +54689,7 @@
         <v>45435.61346064815</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -54751,7 +54751,7 @@
         <v>45637</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -54808,7 +54808,7 @@
         <v>45063</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -54870,7 +54870,7 @@
         <v>44349.57659722222</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -54927,7 +54927,7 @@
         <v>45037</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -54984,7 +54984,7 @@
         <v>45149.37282407407</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -55041,7 +55041,7 @@
         <v>45175.67030092593</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -55098,7 +55098,7 @@
         <v>44900.4591087963</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -55160,7 +55160,7 @@
         <v>44900</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -55222,7 +55222,7 @@
         <v>44704.92609953704</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -55279,7 +55279,7 @@
         <v>45607.47730324074</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -55341,7 +55341,7 @@
         <v>45607.49569444444</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -55403,7 +55403,7 @@
         <v>45616</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -55460,7 +55460,7 @@
         <v>45590.34556712963</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -55517,7 +55517,7 @@
         <v>44763.44563657408</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -55579,7 +55579,7 @@
         <v>45509.33159722222</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -55636,7 +55636,7 @@
         <v>45154</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -55693,7 +55693,7 @@
         <v>45504.36773148148</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -55750,7 +55750,7 @@
         <v>45219</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -55812,7 +55812,7 @@
         <v>45695.48805555556</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -55869,7 +55869,7 @@
         <v>44679.44565972222</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -55931,7 +55931,7 @@
         <v>45617</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -55993,7 +55993,7 @@
         <v>44628.69327546296</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -56050,7 +56050,7 @@
         <v>45573.66002314815</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -56112,7 +56112,7 @@
         <v>45607.76726851852</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -56169,7 +56169,7 @@
         <v>45617.46939814815</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -56231,7 +56231,7 @@
         <v>45719.50333333333</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -56293,7 +56293,7 @@
         <v>45729.63112268518</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -56355,7 +56355,7 @@
         <v>44739.92518518519</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -56412,7 +56412,7 @@
         <v>45574.39741898148</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -56469,7 +56469,7 @@
         <v>45173</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -56526,7 +56526,7 @@
         <v>45644.45839120371</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -56588,7 +56588,7 @@
         <v>45216.56440972222</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -56650,7 +56650,7 @@
         <v>44938.64047453704</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -56707,7 +56707,7 @@
         <v>45187.66037037037</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -56764,7 +56764,7 @@
         <v>45062.40555555555</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -56821,7 +56821,7 @@
         <v>44952.50115740741</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -56883,7 +56883,7 @@
         <v>44952.55783564815</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -56945,7 +56945,7 @@
         <v>45513.62717592593</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -57007,7 +57007,7 @@
         <v>44551</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -57064,7 +57064,7 @@
         <v>45142.46318287037</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -57126,7 +57126,7 @@
         <v>45142.47361111111</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -57188,7 +57188,7 @@
         <v>45754.36946759259</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -57250,7 +57250,7 @@
         <v>45462</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -57307,7 +57307,7 @@
         <v>45641</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -57364,7 +57364,7 @@
         <v>45642.33392361111</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -57426,7 +57426,7 @@
         <v>45770.53775462963</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -57483,7 +57483,7 @@
         <v>44236</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -57540,7 +57540,7 @@
         <v>45509.32942129629</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -57597,7 +57597,7 @@
         <v>44868.66506944445</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -57659,7 +57659,7 @@
         <v>45295</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -57721,7 +57721,7 @@
         <v>45252</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -57778,7 +57778,7 @@
         <v>45603.46905092592</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -57840,7 +57840,7 @@
         <v>45489</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -57902,7 +57902,7 @@
         <v>45463.33690972222</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -57964,7 +57964,7 @@
         <v>45617.44668981482</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -58026,7 +58026,7 @@
         <v>44869</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -58083,7 +58083,7 @@
         <v>45687.44737268519</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -58140,7 +58140,7 @@
         <v>44999.49780092593</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -58197,7 +58197,7 @@
         <v>44965.48253472222</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -58254,7 +58254,7 @@
         <v>45526.58457175926</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -58311,7 +58311,7 @@
         <v>44939.9237037037</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -58368,7 +58368,7 @@
         <v>45639</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -58425,7 +58425,7 @@
         <v>45020.4343287037</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -58487,7 +58487,7 @@
         <v>45125</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -58549,7 +58549,7 @@
         <v>45320</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -58611,7 +58611,7 @@
         <v>45271.35469907407</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -58673,7 +58673,7 @@
         <v>45642.92408564815</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -58730,7 +58730,7 @@
         <v>44915</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -58787,7 +58787,7 @@
         <v>45632</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -58849,7 +58849,7 @@
         <v>45169.5165625</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -58911,7 +58911,7 @@
         <v>45187.344375</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -58973,7 +58973,7 @@
         <v>44547</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -59030,7 +59030,7 @@
         <v>45734.64541666667</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -59092,7 +59092,7 @@
         <v>45223.495</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -59154,7 +59154,7 @@
         <v>44589</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -59211,7 +59211,7 @@
         <v>45593.47171296296</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -59268,7 +59268,7 @@
         <v>44985.29388888889</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -59330,7 +59330,7 @@
         <v>45622.68012731482</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -59392,7 +59392,7 @@
         <v>45372.51966435185</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -59454,7 +59454,7 @@
         <v>45019</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -59511,7 +59511,7 @@
         <v>45770.53225694445</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -59568,7 +59568,7 @@
         <v>44720.60880787037</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -59625,7 +59625,7 @@
         <v>45382.54315972222</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -59682,7 +59682,7 @@
         <v>44844.57421296297</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -59744,7 +59744,7 @@
         <v>44967.38015046297</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -59806,7 +59806,7 @@
         <v>44943.92533564815</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -59863,7 +59863,7 @@
         <v>45567.4943287037</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -59920,7 +59920,7 @@
         <v>45685.54583333333</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -59977,7 +59977,7 @@
         <v>45636.46212962963</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -60039,7 +60039,7 @@
         <v>45624.91649305556</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -60096,7 +60096,7 @@
         <v>45632.38268518518</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -60158,7 +60158,7 @@
         <v>45624.30975694444</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -60220,7 +60220,7 @@
         <v>45763.40003472222</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -60282,7 +60282,7 @@
         <v>45271.92625</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -60339,7 +60339,7 @@
         <v>45762.63892361111</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -60401,7 +60401,7 @@
         <v>44808</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -60458,7 +60458,7 @@
         <v>45019.6284837963</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -60515,7 +60515,7 @@
         <v>44603</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -60572,7 +60572,7 @@
         <v>45622.48667824074</v>
       </c>
       <c r="C996" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -60629,7 +60629,7 @@
         <v>45429.92321759259</v>
       </c>
       <c r="C997" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -60686,7 +60686,7 @@
         <v>44967.96155092592</v>
       </c>
       <c r="C998" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -60743,7 +60743,7 @@
         <v>44967.968125</v>
       </c>
       <c r="C999" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -60800,7 +60800,7 @@
         <v>45544.57392361111</v>
       </c>
       <c r="C1000" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -60857,7 +60857,7 @@
         <v>45617</v>
       </c>
       <c r="C1001" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -60919,7 +60919,7 @@
         <v>44848.69696759259</v>
       </c>
       <c r="C1002" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -60976,7 +60976,7 @@
         <v>44907.35174768518</v>
       </c>
       <c r="C1003" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -61038,7 +61038,7 @@
         <v>45539.38991898148</v>
       </c>
       <c r="C1004" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -61095,7 +61095,7 @@
         <v>45604.38657407407</v>
       </c>
       <c r="C1005" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -61157,7 +61157,7 @@
         <v>45607.68701388889</v>
       </c>
       <c r="C1006" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -61214,7 +61214,7 @@
         <v>45216</v>
       </c>
       <c r="C1007" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
@@ -61276,7 +61276,7 @@
         <v>45624.65340277777</v>
       </c>
       <c r="C1008" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -61333,7 +61333,7 @@
         <v>44448</v>
       </c>
       <c r="C1009" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
@@ -61395,7 +61395,7 @@
         <v>45545.70670138889</v>
       </c>
       <c r="C1010" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1010" t="inlineStr">
         <is>
@@ -61457,7 +61457,7 @@
         <v>45422.53849537037</v>
       </c>
       <c r="C1011" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1011" t="inlineStr">
         <is>
@@ -61519,7 +61519,7 @@
         <v>45618.36010416667</v>
       </c>
       <c r="C1012" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1012" t="inlineStr">
         <is>
@@ -61581,7 +61581,7 @@
         <v>45076</v>
       </c>
       <c r="C1013" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1013" t="inlineStr">
         <is>
@@ -61638,7 +61638,7 @@
         <v>45439.8161574074</v>
       </c>
       <c r="C1014" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1014" t="inlineStr">
         <is>
@@ -61700,7 +61700,7 @@
         <v>45439</v>
       </c>
       <c r="C1015" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1015" t="inlineStr">
         <is>
@@ -61757,7 +61757,7 @@
         <v>44699</v>
       </c>
       <c r="C1016" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1016" t="inlineStr">
         <is>
@@ -61814,7 +61814,7 @@
         <v>45357</v>
       </c>
       <c r="C1017" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1017" t="inlineStr">
         <is>
@@ -61871,7 +61871,7 @@
         <v>45175.67440972223</v>
       </c>
       <c r="C1018" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1018" t="inlineStr">
         <is>
@@ -61928,7 +61928,7 @@
         <v>45733.57371527778</v>
       </c>
       <c r="C1019" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1019" t="inlineStr">
         <is>
@@ -61990,7 +61990,7 @@
         <v>45615.37226851852</v>
       </c>
       <c r="C1020" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1020" t="inlineStr">
         <is>
@@ -62047,7 +62047,7 @@
         <v>44964.56496527778</v>
       </c>
       <c r="C1021" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1021" t="inlineStr">
         <is>
@@ -62109,7 +62109,7 @@
         <v>44908.56585648148</v>
       </c>
       <c r="C1022" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1022" t="inlineStr">
         <is>
@@ -62171,7 +62171,7 @@
         <v>45422.56459490741</v>
       </c>
       <c r="C1023" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1023" t="inlineStr">
         <is>
@@ -62233,7 +62233,7 @@
         <v>44357</v>
       </c>
       <c r="C1024" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1024" t="inlineStr">
         <is>
@@ -62290,7 +62290,7 @@
         <v>45775.66376157408</v>
       </c>
       <c r="C1025" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1025" t="inlineStr">
         <is>
@@ -62352,7 +62352,7 @@
         <v>45506.3241087963</v>
       </c>
       <c r="C1026" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1026" t="inlineStr">
         <is>
@@ -62414,7 +62414,7 @@
         <v>44595.38513888889</v>
       </c>
       <c r="C1027" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1027" t="inlineStr">
         <is>
@@ -62471,7 +62471,7 @@
         <v>45622</v>
       </c>
       <c r="C1028" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1028" t="inlineStr">
         <is>
@@ -62533,7 +62533,7 @@
         <v>45622</v>
       </c>
       <c r="C1029" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1029" t="inlineStr">
         <is>
@@ -62595,7 +62595,7 @@
         <v>45177.35335648148</v>
       </c>
       <c r="C1030" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1030" t="inlineStr">
         <is>
@@ -62657,7 +62657,7 @@
         <v>45719.54538194444</v>
       </c>
       <c r="C1031" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1031" t="inlineStr">
         <is>
@@ -62719,7 +62719,7 @@
         <v>45260.92565972222</v>
       </c>
       <c r="C1032" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1032" t="inlineStr">
         <is>
@@ -62776,7 +62776,7 @@
         <v>45687.45087962963</v>
       </c>
       <c r="C1033" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1033" t="inlineStr">
         <is>
@@ -62833,7 +62833,7 @@
         <v>45741.4575</v>
       </c>
       <c r="C1034" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1034" t="inlineStr">
         <is>
@@ -62890,7 +62890,7 @@
         <v>45736.40509259259</v>
       </c>
       <c r="C1035" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1035" t="inlineStr">
         <is>
@@ -62952,7 +62952,7 @@
         <v>44859.65696759259</v>
       </c>
       <c r="C1036" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1036" t="inlineStr">
         <is>
@@ -63009,7 +63009,7 @@
         <v>45769.40646990741</v>
       </c>
       <c r="C1037" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1037" t="inlineStr">
         <is>
@@ -63066,7 +63066,7 @@
         <v>45771.47800925926</v>
       </c>
       <c r="C1038" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1038" t="inlineStr">
         <is>
@@ -63128,7 +63128,7 @@
         <v>45545.68222222223</v>
       </c>
       <c r="C1039" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1039" t="inlineStr">
         <is>
@@ -63185,7 +63185,7 @@
         <v>44502.61646990741</v>
       </c>
       <c r="C1040" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1040" t="inlineStr">
         <is>
@@ -63242,7 +63242,7 @@
         <v>45124.57927083333</v>
       </c>
       <c r="C1041" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1041" t="inlineStr">
         <is>
@@ -63299,7 +63299,7 @@
         <v>44789.34496527778</v>
       </c>
       <c r="C1042" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1042" t="inlineStr">
         <is>
@@ -63356,7 +63356,7 @@
         <v>44789</v>
       </c>
       <c r="C1043" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1043" t="inlineStr">
         <is>
@@ -63413,7 +63413,7 @@
         <v>45489</v>
       </c>
       <c r="C1044" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1044" t="inlineStr">
         <is>
@@ -63475,7 +63475,7 @@
         <v>45300</v>
       </c>
       <c r="C1045" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1045" t="inlineStr">
         <is>
@@ -63532,7 +63532,7 @@
         <v>45301.39141203704</v>
       </c>
       <c r="C1046" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1046" t="inlineStr">
         <is>
@@ -63589,7 +63589,7 @@
         <v>45636</v>
       </c>
       <c r="C1047" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1047" t="inlineStr">
         <is>
@@ -63646,7 +63646,7 @@
         <v>45734.54376157407</v>
       </c>
       <c r="C1048" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1048" t="inlineStr">
         <is>
@@ -63703,7 +63703,7 @@
         <v>45763.60581018519</v>
       </c>
       <c r="C1049" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1049" t="inlineStr">
         <is>
@@ -63760,7 +63760,7 @@
         <v>45777.35241898148</v>
       </c>
       <c r="C1050" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1050" t="inlineStr">
         <is>
@@ -63822,7 +63822,7 @@
         <v>45779.70166666667</v>
       </c>
       <c r="C1051" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1051" t="inlineStr">
         <is>
@@ -63879,7 +63879,7 @@
         <v>45763.63564814815</v>
       </c>
       <c r="C1052" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1052" t="inlineStr">
         <is>
@@ -63941,7 +63941,7 @@
         <v>45763.64425925926</v>
       </c>
       <c r="C1053" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1053" t="inlineStr">
         <is>
@@ -64003,7 +64003,7 @@
         <v>45783.56886574074</v>
       </c>
       <c r="C1054" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1054" t="inlineStr">
         <is>
@@ -64060,7 +64060,7 @@
         <v>45763.60788194444</v>
       </c>
       <c r="C1055" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1055" t="inlineStr">
         <is>
@@ -64122,7 +64122,7 @@
         <v>44999.47921296296</v>
       </c>
       <c r="C1056" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1056" t="inlineStr">
         <is>
@@ -64179,7 +64179,7 @@
         <v>45498.35340277778</v>
       </c>
       <c r="C1057" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1057" t="inlineStr">
         <is>
@@ -64241,7 +64241,7 @@
         <v>45784.54953703703</v>
       </c>
       <c r="C1058" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1058" t="inlineStr">
         <is>
@@ -64298,7 +64298,7 @@
         <v>45120.92684027777</v>
       </c>
       <c r="C1059" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1059" t="inlineStr">
         <is>
@@ -64355,7 +64355,7 @@
         <v>45784.52148148148</v>
       </c>
       <c r="C1060" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1060" t="inlineStr">
         <is>
@@ -64412,7 +64412,7 @@
         <v>45789.63913194444</v>
       </c>
       <c r="C1061" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1061" t="inlineStr">
         <is>
@@ -64474,7 +64474,7 @@
         <v>45789.52925925926</v>
       </c>
       <c r="C1062" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1062" t="inlineStr">
         <is>
@@ -64536,7 +64536,7 @@
         <v>45786.36578703704</v>
       </c>
       <c r="C1063" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1063" t="inlineStr">
         <is>
@@ -64598,7 +64598,7 @@
         <v>45786.39515046297</v>
       </c>
       <c r="C1064" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1064" t="inlineStr">
         <is>
@@ -64660,7 +64660,7 @@
         <v>44525.53486111111</v>
       </c>
       <c r="C1065" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1065" t="inlineStr">
         <is>
@@ -64722,7 +64722,7 @@
         <v>44788.60025462963</v>
       </c>
       <c r="C1066" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1066" t="inlineStr">
         <is>
@@ -64779,7 +64779,7 @@
         <v>45758.37297453704</v>
       </c>
       <c r="C1067" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1067" t="inlineStr">
         <is>
@@ -64841,7 +64841,7 @@
         <v>45790.89</v>
       </c>
       <c r="C1068" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1068" t="inlineStr">
         <is>
@@ -64898,7 +64898,7 @@
         <v>45791</v>
       </c>
       <c r="C1069" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1069" t="inlineStr">
         <is>
@@ -64955,7 +64955,7 @@
         <v>45791</v>
       </c>
       <c r="C1070" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1070" t="inlineStr">
         <is>
@@ -65012,7 +65012,7 @@
         <v>45791</v>
       </c>
       <c r="C1071" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1071" t="inlineStr">
         <is>
@@ -65069,7 +65069,7 @@
         <v>45754</v>
       </c>
       <c r="C1072" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1072" t="inlineStr">
         <is>
@@ -65131,7 +65131,7 @@
         <v>45055</v>
       </c>
       <c r="C1073" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1073" t="inlineStr">
         <is>
@@ -65188,7 +65188,7 @@
         <v>45793.53853009259</v>
       </c>
       <c r="C1074" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1074" t="inlineStr">
         <is>
@@ -65250,7 +65250,7 @@
         <v>45236</v>
       </c>
       <c r="C1075" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1075" t="inlineStr">
         <is>
@@ -65312,7 +65312,7 @@
         <v>45792</v>
       </c>
       <c r="C1076" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1076" t="inlineStr">
         <is>
@@ -65369,7 +65369,7 @@
         <v>45793.5347800926</v>
       </c>
       <c r="C1077" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1077" t="inlineStr">
         <is>
@@ -65431,7 +65431,7 @@
         <v>45792.43704861111</v>
       </c>
       <c r="C1078" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1078" t="inlineStr">
         <is>
@@ -65488,7 +65488,7 @@
         <v>45796.40721064815</v>
       </c>
       <c r="C1079" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1079" t="inlineStr">
         <is>
@@ -65550,7 +65550,7 @@
         <v>45191.70572916666</v>
       </c>
       <c r="C1080" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1080" t="inlineStr">
         <is>
@@ -65607,7 +65607,7 @@
         <v>45796.59533564815</v>
       </c>
       <c r="C1081" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1081" t="inlineStr">
         <is>
@@ -65664,7 +65664,7 @@
         <v>45569</v>
       </c>
       <c r="C1082" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1082" t="inlineStr">
         <is>
